--- a/database workbook for to be imported.xlsx
+++ b/database workbook for to be imported.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\30079051.eastkent\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\30079051\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A2B623-A187-43A1-9086-242FCF9275CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307D894F-B542-4B87-9475-FF89F40F76A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A5985029-C304-4E14-B06A-83B2417720C7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A5985029-C304-4E14-B06A-83B2417720C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="303">
   <si>
     <t>Amplifier</t>
   </si>
@@ -584,9 +584,6 @@
     <t>Blue/white</t>
   </si>
   <si>
-    <t>Relation</t>
-  </si>
-  <si>
     <t>RPB65</t>
   </si>
   <si>
@@ -851,12 +848,6 @@
     <t>SL-1210MK2</t>
   </si>
   <si>
-    <t>BCC00004</t>
-  </si>
-  <si>
-    <t>BCC00005</t>
-  </si>
-  <si>
     <t>BCC00006</t>
   </si>
   <si>
@@ -878,15 +869,9 @@
     <t>BCC00012</t>
   </si>
   <si>
-    <t>BCC00013</t>
-  </si>
-  <si>
     <t>BCC00014</t>
   </si>
   <si>
-    <t>BCC00015</t>
-  </si>
-  <si>
     <t>BCC00016</t>
   </si>
   <si>
@@ -926,9 +911,6 @@
     <t>BCC00028</t>
   </si>
   <si>
-    <t>BCC00029</t>
-  </si>
-  <si>
     <t>BCC00030</t>
   </si>
   <si>
@@ -950,692 +932,26 @@
     <t>BCC00036</t>
   </si>
   <si>
-    <t>BCC00037</t>
-  </si>
-  <si>
-    <t>BCC00038</t>
-  </si>
-  <si>
-    <t>BCC00039</t>
-  </si>
-  <si>
-    <t>BCC00040</t>
-  </si>
-  <si>
-    <t>BCC00041</t>
-  </si>
-  <si>
-    <t>BCC00042</t>
-  </si>
-  <si>
-    <t>BCC00043</t>
-  </si>
-  <si>
-    <t>BCC00044</t>
-  </si>
-  <si>
-    <t>BCC00045</t>
-  </si>
-  <si>
-    <t>BCC00046</t>
-  </si>
-  <si>
-    <t>BCC00047</t>
-  </si>
-  <si>
-    <t>BCC00048</t>
-  </si>
-  <si>
-    <t>BCC00049</t>
-  </si>
-  <si>
-    <t>BCC00050</t>
-  </si>
-  <si>
-    <t>BCC00051</t>
-  </si>
-  <si>
-    <t>BCC00052</t>
-  </si>
-  <si>
-    <t>BCC00053</t>
-  </si>
-  <si>
-    <t>BCC00054</t>
-  </si>
-  <si>
-    <t>BCC00055</t>
-  </si>
-  <si>
-    <t>BCC00056</t>
-  </si>
-  <si>
-    <t>BCC00057</t>
-  </si>
-  <si>
-    <t>BCC00058</t>
-  </si>
-  <si>
-    <t>BCC00059</t>
-  </si>
-  <si>
-    <t>BCC00060</t>
-  </si>
-  <si>
-    <t>BCC00061</t>
-  </si>
-  <si>
-    <t>BCC00062</t>
-  </si>
-  <si>
-    <t>BCC00063</t>
-  </si>
-  <si>
-    <t>BCC00064</t>
-  </si>
-  <si>
-    <t>BCC00065</t>
-  </si>
-  <si>
-    <t>BCC00066</t>
-  </si>
-  <si>
-    <t>BCC00067</t>
-  </si>
-  <si>
-    <t>BCC00068</t>
-  </si>
-  <si>
-    <t>BCC00069</t>
-  </si>
-  <si>
-    <t>BCC00070</t>
-  </si>
-  <si>
-    <t>BCC00071</t>
-  </si>
-  <si>
-    <t>BCC00072</t>
-  </si>
-  <si>
-    <t>BCC00073</t>
-  </si>
-  <si>
-    <t>BCC00074</t>
-  </si>
-  <si>
-    <t>BCC00075</t>
-  </si>
-  <si>
-    <t>BCC00076</t>
-  </si>
-  <si>
-    <t>BCC00077</t>
-  </si>
-  <si>
-    <t>BCC00078</t>
-  </si>
-  <si>
-    <t>BCC00079</t>
-  </si>
-  <si>
-    <t>BCC00080</t>
-  </si>
-  <si>
-    <t>BCC00081</t>
-  </si>
-  <si>
-    <t>BCC00082</t>
-  </si>
-  <si>
-    <t>BCC00083</t>
-  </si>
-  <si>
-    <t>BCC00084</t>
-  </si>
-  <si>
-    <t>BCC00085</t>
-  </si>
-  <si>
-    <t>BCC00086</t>
-  </si>
-  <si>
-    <t>BCC00087</t>
-  </si>
-  <si>
-    <t>BCC00088</t>
-  </si>
-  <si>
-    <t>BCC00089</t>
-  </si>
-  <si>
-    <t>BCC00090</t>
-  </si>
-  <si>
-    <t>BCC00091</t>
-  </si>
-  <si>
-    <t>BCC00092</t>
-  </si>
-  <si>
-    <t>BCC00093</t>
-  </si>
-  <si>
-    <t>BCC00094</t>
-  </si>
-  <si>
-    <t>BCC00095</t>
-  </si>
-  <si>
-    <t>BCC00096</t>
-  </si>
-  <si>
-    <t>BCC00097</t>
-  </si>
-  <si>
-    <t>BCC00098</t>
-  </si>
-  <si>
-    <t>BCC00099</t>
-  </si>
-  <si>
-    <t>BCC00100</t>
-  </si>
-  <si>
-    <t>BCC00101</t>
-  </si>
-  <si>
-    <t>BCC00102</t>
-  </si>
-  <si>
-    <t>BCC00103</t>
-  </si>
-  <si>
-    <t>BCC00104</t>
-  </si>
-  <si>
-    <t>BCC00105</t>
-  </si>
-  <si>
-    <t>BCC00106</t>
-  </si>
-  <si>
-    <t>BCC00107</t>
-  </si>
-  <si>
-    <t>BCC00108</t>
-  </si>
-  <si>
-    <t>BCC00109</t>
-  </si>
-  <si>
-    <t>BCC00110</t>
-  </si>
-  <si>
-    <t>BCC00111</t>
-  </si>
-  <si>
-    <t>BCC00112</t>
-  </si>
-  <si>
-    <t>BCC00113</t>
-  </si>
-  <si>
-    <t>BCC00114</t>
-  </si>
-  <si>
-    <t>BCC00115</t>
-  </si>
-  <si>
-    <t>BCC00116</t>
-  </si>
-  <si>
-    <t>BCC00117</t>
-  </si>
-  <si>
-    <t>BCC00118</t>
-  </si>
-  <si>
-    <t>BCC00119</t>
-  </si>
-  <si>
-    <t>BCC00120</t>
-  </si>
-  <si>
-    <t>BCC00121</t>
-  </si>
-  <si>
-    <t>BCC00122</t>
-  </si>
-  <si>
-    <t>BCC00123</t>
-  </si>
-  <si>
-    <t>BCC00124</t>
-  </si>
-  <si>
-    <t>BCC00125</t>
-  </si>
-  <si>
-    <t>BCC00126</t>
-  </si>
-  <si>
-    <t>BCC00127</t>
-  </si>
-  <si>
-    <t>BCC00128</t>
-  </si>
-  <si>
-    <t>BCC00129</t>
-  </si>
-  <si>
-    <t>BCC00130</t>
-  </si>
-  <si>
-    <t>BCC00131</t>
-  </si>
-  <si>
-    <t>BCC00132</t>
-  </si>
-  <si>
-    <t>BCC00133</t>
-  </si>
-  <si>
-    <t>BCC00134</t>
-  </si>
-  <si>
-    <t>BCC00135</t>
-  </si>
-  <si>
-    <t>BCC00136</t>
-  </si>
-  <si>
-    <t>BCC00137</t>
-  </si>
-  <si>
-    <t>BCC00138</t>
-  </si>
-  <si>
-    <t>BCC00139</t>
-  </si>
-  <si>
-    <t>BCC00140</t>
-  </si>
-  <si>
-    <t>BCC00141</t>
-  </si>
-  <si>
-    <t>BCC00142</t>
-  </si>
-  <si>
-    <t>BCC00143</t>
-  </si>
-  <si>
-    <t>BCC00144</t>
-  </si>
-  <si>
-    <t>BCC00145</t>
-  </si>
-  <si>
-    <t>BCC00146</t>
-  </si>
-  <si>
-    <t>BCC00147</t>
-  </si>
-  <si>
-    <t>BCC00148</t>
-  </si>
-  <si>
-    <t>BCC00149</t>
-  </si>
-  <si>
-    <t>BCC00150</t>
-  </si>
-  <si>
-    <t>BCC00151</t>
-  </si>
-  <si>
-    <t>BCC00152</t>
-  </si>
-  <si>
-    <t>BCC00153</t>
-  </si>
-  <si>
-    <t>BCC00154</t>
-  </si>
-  <si>
-    <t>BCC00155</t>
-  </si>
-  <si>
-    <t>BCC00156</t>
-  </si>
-  <si>
-    <t>BCC00157</t>
-  </si>
-  <si>
-    <t>BCC00158</t>
-  </si>
-  <si>
-    <t>BCC00159</t>
-  </si>
-  <si>
-    <t>BCC00160</t>
-  </si>
-  <si>
-    <t>BCC00161</t>
-  </si>
-  <si>
-    <t>BCC00162</t>
-  </si>
-  <si>
-    <t>BCC00163</t>
-  </si>
-  <si>
-    <t>BCC00164</t>
-  </si>
-  <si>
-    <t>BCC00165</t>
-  </si>
-  <si>
-    <t>BCC00166</t>
-  </si>
-  <si>
-    <t>BCC00167</t>
-  </si>
-  <si>
-    <t>BCC00168</t>
-  </si>
-  <si>
-    <t>BCC00169</t>
-  </si>
-  <si>
-    <t>BCC00170</t>
-  </si>
-  <si>
-    <t>BCC00171</t>
-  </si>
-  <si>
-    <t>BCC00172</t>
-  </si>
-  <si>
-    <t>BCC00173</t>
-  </si>
-  <si>
-    <t>BCC00174</t>
-  </si>
-  <si>
-    <t>BCC00175</t>
-  </si>
-  <si>
-    <t>BCC00176</t>
-  </si>
-  <si>
-    <t>BCC00177</t>
-  </si>
-  <si>
-    <t>BCC00178</t>
-  </si>
-  <si>
-    <t>BCC00179</t>
-  </si>
-  <si>
-    <t>BCC00180</t>
-  </si>
-  <si>
-    <t>BCC00181</t>
-  </si>
-  <si>
-    <t>BCC00182</t>
-  </si>
-  <si>
-    <t>BCC00183</t>
-  </si>
-  <si>
-    <t>BCC00184</t>
-  </si>
-  <si>
-    <t>BCC00185</t>
-  </si>
-  <si>
-    <t>BCC00186</t>
-  </si>
-  <si>
-    <t>BCC00187</t>
-  </si>
-  <si>
-    <t>BCC00188</t>
-  </si>
-  <si>
-    <t>BCC00189</t>
-  </si>
-  <si>
-    <t>BCC00190</t>
-  </si>
-  <si>
-    <t>BCC00191</t>
-  </si>
-  <si>
-    <t>BCC00192</t>
-  </si>
-  <si>
-    <t>BCC00193</t>
-  </si>
-  <si>
-    <t>BCC00194</t>
-  </si>
-  <si>
-    <t>BCC00195</t>
-  </si>
-  <si>
-    <t>BCC00196</t>
-  </si>
-  <si>
-    <t>BCC00197</t>
-  </si>
-  <si>
-    <t>BCC00198</t>
-  </si>
-  <si>
-    <t>BCC00199</t>
-  </si>
-  <si>
-    <t>BCC00200</t>
-  </si>
-  <si>
-    <t>BCC00201</t>
-  </si>
-  <si>
-    <t>BCC00202</t>
-  </si>
-  <si>
-    <t>BCC00203</t>
-  </si>
-  <si>
-    <t>BCC00204</t>
-  </si>
-  <si>
-    <t>BCC00205</t>
-  </si>
-  <si>
-    <t>BCC00206</t>
-  </si>
-  <si>
-    <t>BCC00207</t>
-  </si>
-  <si>
-    <t>BCC00208</t>
-  </si>
-  <si>
-    <t>BCC00209</t>
-  </si>
-  <si>
-    <t>BCC00210</t>
-  </si>
-  <si>
-    <t>BCC00211</t>
-  </si>
-  <si>
-    <t>BCC00212</t>
-  </si>
-  <si>
-    <t>BCC00213</t>
-  </si>
-  <si>
-    <t>BCC00214</t>
-  </si>
-  <si>
-    <t>BCC00215</t>
-  </si>
-  <si>
-    <t>BCC00216</t>
-  </si>
-  <si>
-    <t>BCC00217</t>
-  </si>
-  <si>
-    <t>BCC00218</t>
-  </si>
-  <si>
-    <t>BCC00219</t>
-  </si>
-  <si>
-    <t>BCC00220</t>
-  </si>
-  <si>
-    <t>BCC00221</t>
-  </si>
-  <si>
-    <t>BCC00222</t>
-  </si>
-  <si>
-    <t>BCC00223</t>
-  </si>
-  <si>
-    <t>BCC00224</t>
-  </si>
-  <si>
-    <t>BCC00225</t>
-  </si>
-  <si>
-    <t>BCC00226</t>
-  </si>
-  <si>
-    <t>BCC00227</t>
-  </si>
-  <si>
-    <t>BCC00228</t>
-  </si>
-  <si>
-    <t>BCC00229</t>
-  </si>
-  <si>
-    <t>BCC00230</t>
-  </si>
-  <si>
-    <t>BCC00231</t>
-  </si>
-  <si>
-    <t>BCC00232</t>
-  </si>
-  <si>
-    <t>BCC00233</t>
-  </si>
-  <si>
-    <t>BCC00234</t>
-  </si>
-  <si>
-    <t>BCC00235</t>
-  </si>
-  <si>
-    <t>BCC00236</t>
-  </si>
-  <si>
-    <t>BCC00237</t>
-  </si>
-  <si>
-    <t>BCC00238</t>
-  </si>
-  <si>
-    <t>BCC00239</t>
-  </si>
-  <si>
-    <t>BCC00240</t>
-  </si>
-  <si>
-    <t>BCC00241</t>
-  </si>
-  <si>
-    <t>BCC00242</t>
-  </si>
-  <si>
-    <t>BCC00243</t>
-  </si>
-  <si>
-    <t>BCC00244</t>
-  </si>
-  <si>
-    <t>BCC00245</t>
-  </si>
-  <si>
-    <t>BCC00246</t>
-  </si>
-  <si>
-    <t>BCC00247</t>
-  </si>
-  <si>
-    <t>BCC00248</t>
-  </si>
-  <si>
-    <t>BCC00249</t>
-  </si>
-  <si>
-    <t>BCC00250</t>
-  </si>
-  <si>
-    <t>BCC00251</t>
-  </si>
-  <si>
-    <t>BCC00252</t>
-  </si>
-  <si>
-    <t>BCC00253</t>
-  </si>
-  <si>
-    <t>BCC00254</t>
-  </si>
-  <si>
-    <t>BCC00255</t>
-  </si>
-  <si>
-    <t>BCC00256</t>
-  </si>
-  <si>
-    <t>BCC00257</t>
-  </si>
-  <si>
-    <t>BCC00258</t>
-  </si>
-  <si>
-    <t>BCC00259</t>
-  </si>
-  <si>
-    <t>BCC00260</t>
-  </si>
-  <si>
-    <t>BCC00261</t>
-  </si>
-  <si>
-    <t>BCC00262</t>
-  </si>
-  <si>
-    <t>BCC00263</t>
+    <t>Revelation</t>
+  </si>
+  <si>
+    <t>Vintage Standard Stratocaster</t>
+  </si>
+  <si>
+    <t>ST-20HH Active SBK</t>
+  </si>
+  <si>
+    <t>Squier Affinity Series Stratocaster</t>
+  </si>
+  <si>
+    <t>Sunburst</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2012,30 +1328,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FDC74E2-49FE-4940-A5E5-5C5F4A30102F}">
-  <dimension ref="A1:W261"/>
+  <dimension ref="A1:W265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.59765625" customWidth="1"/>
+    <col min="3" max="3" width="15.296875" customWidth="1"/>
+    <col min="4" max="4" width="14.296875" customWidth="1"/>
+    <col min="5" max="5" width="13.8984375" customWidth="1"/>
+    <col min="6" max="6" width="14.59765625" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.59765625" customWidth="1"/>
+    <col min="9" max="9" width="9.296875" customWidth="1"/>
+    <col min="10" max="10" width="14.69921875" customWidth="1"/>
     <col min="15" max="15" width="18" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" customWidth="1"/>
-    <col min="18" max="18" width="13.85546875" customWidth="1"/>
-    <col min="23" max="23" width="11.42578125" customWidth="1"/>
+    <col min="16" max="16" width="13.09765625" customWidth="1"/>
+    <col min="18" max="18" width="13.8984375" customWidth="1"/>
+    <col min="23" max="23" width="11.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="40.200000000000003" customHeight="1">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -2061,19 +1377,13 @@
         <v>32</v>
       </c>
       <c r="I1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>271</v>
-      </c>
+    <row r="2" spans="1:19" ht="25.2" customHeight="1">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2091,13 +1401,7 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>272</v>
-      </c>
+    <row r="3" spans="1:19" ht="15">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2115,13 +1419,7 @@
       <c r="R3" s="2"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>273</v>
-      </c>
+    <row r="4" spans="1:19" ht="15">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2139,13 +1437,7 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>274</v>
-      </c>
+    <row r="5" spans="1:19" ht="15">
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
@@ -2163,13 +1455,7 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>275</v>
-      </c>
+    <row r="6" spans="1:19" ht="15">
       <c r="C6" s="1" t="s">
         <v>0</v>
       </c>
@@ -2187,13 +1473,7 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>276</v>
-      </c>
+    <row r="7" spans="1:19" ht="15">
       <c r="C7" s="1" t="s">
         <v>0</v>
       </c>
@@ -2211,13 +1491,7 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>277</v>
-      </c>
+    <row r="8" spans="1:19" ht="15">
       <c r="C8" s="1" t="s">
         <v>0</v>
       </c>
@@ -2235,13 +1509,7 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>278</v>
-      </c>
+    <row r="9" spans="1:19" ht="15">
       <c r="C9" s="1" t="s">
         <v>0</v>
       </c>
@@ -2259,13 +1527,7 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>279</v>
-      </c>
+    <row r="10" spans="1:19" ht="15" customHeight="1">
       <c r="C10" s="1" t="s">
         <v>0</v>
       </c>
@@ -2283,13 +1545,7 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>280</v>
-      </c>
+    <row r="11" spans="1:19" ht="15">
       <c r="C11" s="1" t="s">
         <v>0</v>
       </c>
@@ -2307,13 +1563,7 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>281</v>
-      </c>
+    <row r="12" spans="1:19" ht="15">
       <c r="C12" s="1" t="s">
         <v>0</v>
       </c>
@@ -2331,13 +1581,7 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>282</v>
-      </c>
+    <row r="13" spans="1:19" ht="15" customHeight="1">
       <c r="C13" s="1" t="s">
         <v>0</v>
       </c>
@@ -2355,13 +1599,7 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>283</v>
-      </c>
+    <row r="14" spans="1:19" ht="15" customHeight="1">
       <c r="C14" s="1" t="s">
         <v>0</v>
       </c>
@@ -2379,13 +1617,7 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>284</v>
-      </c>
+    <row r="15" spans="1:19" ht="15">
       <c r="C15" s="1" t="s">
         <v>0</v>
       </c>
@@ -2401,13 +1633,7 @@
       <c r="Q15" s="1"/>
       <c r="S15" s="1"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>285</v>
-      </c>
+    <row r="16" spans="1:19" ht="15">
       <c r="C16" s="1" t="s">
         <v>19</v>
       </c>
@@ -2423,13 +1649,7 @@
       <c r="Q16" s="1"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>286</v>
-      </c>
+    <row r="17" spans="3:19" ht="15">
       <c r="C17" s="1" t="s">
         <v>19</v>
       </c>
@@ -2448,13 +1668,7 @@
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>287</v>
-      </c>
+    <row r="18" spans="3:19" ht="15">
       <c r="C18" s="1" t="s">
         <v>19</v>
       </c>
@@ -2473,13 +1687,7 @@
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
     </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>288</v>
-      </c>
+    <row r="19" spans="3:19" ht="15" customHeight="1">
       <c r="C19" s="1" t="s">
         <v>19</v>
       </c>
@@ -2498,13 +1706,7 @@
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>289</v>
-      </c>
+    <row r="20" spans="3:19">
       <c r="C20" t="s">
         <v>34</v>
       </c>
@@ -2526,13 +1728,7 @@
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>290</v>
-      </c>
+    <row r="21" spans="3:19">
       <c r="C21" t="s">
         <v>34</v>
       </c>
@@ -2554,13 +1750,7 @@
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>291</v>
-      </c>
+    <row r="22" spans="3:19">
       <c r="C22" t="s">
         <v>34</v>
       </c>
@@ -2582,13 +1772,7 @@
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>292</v>
-      </c>
+    <row r="23" spans="3:19">
       <c r="C23" t="s">
         <v>34</v>
       </c>
@@ -2610,13 +1794,7 @@
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>293</v>
-      </c>
+    <row r="24" spans="3:19" ht="15">
       <c r="C24" t="s">
         <v>38</v>
       </c>
@@ -2635,13 +1813,7 @@
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>294</v>
-      </c>
+    <row r="25" spans="3:19" ht="15">
       <c r="C25" s="1" t="s">
         <v>41</v>
       </c>
@@ -2663,13 +1835,7 @@
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
     </row>
-    <row r="26" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>295</v>
-      </c>
+    <row r="26" spans="3:19" ht="27.6">
       <c r="C26" s="1" t="s">
         <v>45</v>
       </c>
@@ -2691,13 +1857,7 @@
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
     </row>
-    <row r="27" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>296</v>
-      </c>
+    <row r="27" spans="3:19" ht="27.6">
       <c r="C27" s="1" t="s">
         <v>45</v>
       </c>
@@ -2719,13 +1879,7 @@
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>297</v>
-      </c>
+    <row r="28" spans="3:19">
       <c r="C28" s="1" t="s">
         <v>49</v>
       </c>
@@ -2748,13 +1902,7 @@
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>298</v>
-      </c>
+    <row r="29" spans="3:19">
       <c r="C29" s="1" t="s">
         <v>45</v>
       </c>
@@ -2777,13 +1925,7 @@
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>299</v>
-      </c>
+    <row r="30" spans="3:19">
       <c r="C30" s="1" t="s">
         <v>45</v>
       </c>
@@ -2805,13 +1947,7 @@
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>300</v>
-      </c>
+    <row r="31" spans="3:19">
       <c r="C31" s="1" t="s">
         <v>45</v>
       </c>
@@ -2833,13 +1969,7 @@
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>301</v>
-      </c>
+    <row r="32" spans="3:19">
       <c r="C32" s="1" t="s">
         <v>45</v>
       </c>
@@ -2862,13 +1992,7 @@
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
     </row>
-    <row r="33" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>302</v>
-      </c>
+    <row r="33" spans="3:19">
       <c r="C33" s="1" t="s">
         <v>45</v>
       </c>
@@ -2890,13 +2014,7 @@
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
     </row>
-    <row r="34" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>303</v>
-      </c>
+    <row r="34" spans="3:19">
       <c r="C34" s="1" t="s">
         <v>45</v>
       </c>
@@ -2918,13 +2036,7 @@
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>304</v>
-      </c>
+    <row r="35" spans="3:19">
       <c r="C35" s="1" t="s">
         <v>61</v>
       </c>
@@ -2947,13 +2059,7 @@
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
     </row>
-    <row r="36" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>305</v>
-      </c>
+    <row r="36" spans="3:19" ht="27.6">
       <c r="C36" s="1" t="s">
         <v>63</v>
       </c>
@@ -2976,13 +2082,7 @@
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
     </row>
-    <row r="37" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>306</v>
-      </c>
+    <row r="37" spans="3:19" ht="27.6">
       <c r="C37" s="1" t="s">
         <v>0</v>
       </c>
@@ -3005,13 +2105,7 @@
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
     </row>
-    <row r="38" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>307</v>
-      </c>
+    <row r="38" spans="3:19" ht="27.6">
       <c r="C38" s="1" t="s">
         <v>0</v>
       </c>
@@ -3034,13 +2128,7 @@
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>308</v>
-      </c>
+    <row r="39" spans="3:19">
       <c r="C39" s="1" t="s">
         <v>61</v>
       </c>
@@ -3063,13 +2151,7 @@
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>309</v>
-      </c>
+    <row r="40" spans="3:19">
       <c r="C40" s="1" t="s">
         <v>0</v>
       </c>
@@ -3092,13 +2174,7 @@
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>310</v>
-      </c>
+    <row r="41" spans="3:19">
       <c r="C41" s="1" t="s">
         <v>0</v>
       </c>
@@ -3121,13 +2197,7 @@
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>311</v>
-      </c>
+    <row r="42" spans="3:19">
       <c r="C42" s="1" t="s">
         <v>72</v>
       </c>
@@ -3150,13 +2220,7 @@
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
     </row>
-    <row r="43" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>312</v>
-      </c>
+    <row r="43" spans="3:19" ht="27.6">
       <c r="C43" s="1" t="s">
         <v>72</v>
       </c>
@@ -3179,13 +2243,7 @@
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>313</v>
-      </c>
+    <row r="44" spans="3:19">
       <c r="C44" s="1" t="s">
         <v>72</v>
       </c>
@@ -3208,13 +2266,7 @@
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>314</v>
-      </c>
+    <row r="45" spans="3:19">
       <c r="C45" s="1" t="s">
         <v>72</v>
       </c>
@@ -3237,13 +2289,7 @@
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>315</v>
-      </c>
+    <row r="46" spans="3:19">
       <c r="C46" s="1" t="s">
         <v>77</v>
       </c>
@@ -3266,13 +2312,7 @@
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>316</v>
-      </c>
+    <row r="47" spans="3:19">
       <c r="C47" s="1" t="s">
         <v>77</v>
       </c>
@@ -3295,13 +2335,7 @@
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>317</v>
-      </c>
+    <row r="48" spans="3:19">
       <c r="C48" s="1" t="s">
         <v>45</v>
       </c>
@@ -3324,13 +2358,7 @@
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>318</v>
-      </c>
+    <row r="49" spans="2:19">
       <c r="C49" s="1" t="s">
         <v>77</v>
       </c>
@@ -3353,13 +2381,7 @@
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>319</v>
-      </c>
+    <row r="50" spans="2:19">
       <c r="C50" s="1" t="s">
         <v>77</v>
       </c>
@@ -3382,13 +2404,7 @@
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>320</v>
-      </c>
+    <row r="51" spans="2:19">
       <c r="C51" s="1" t="s">
         <v>77</v>
       </c>
@@ -3411,13 +2427,7 @@
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>321</v>
-      </c>
+    <row r="52" spans="2:19">
       <c r="C52" s="1" t="s">
         <v>77</v>
       </c>
@@ -3440,13 +2450,7 @@
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>322</v>
-      </c>
+    <row r="53" spans="2:19">
       <c r="C53" s="1" t="s">
         <v>77</v>
       </c>
@@ -3469,13 +2473,7 @@
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>323</v>
-      </c>
+    <row r="54" spans="2:19">
       <c r="C54" s="1" t="s">
         <v>77</v>
       </c>
@@ -3498,12 +2496,9 @@
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>54</v>
-      </c>
+    <row r="55" spans="2:19">
       <c r="B55" t="s">
-        <v>324</v>
+        <v>293</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>93</v>
@@ -3527,13 +2522,7 @@
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>325</v>
-      </c>
+    <row r="56" spans="2:19">
       <c r="C56" s="1" t="s">
         <v>93</v>
       </c>
@@ -3556,12 +2545,9 @@
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>56</v>
-      </c>
+    <row r="57" spans="2:19">
       <c r="B57" t="s">
-        <v>326</v>
+        <v>291</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>93</v>
@@ -3585,12 +2571,9 @@
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>57</v>
-      </c>
+    <row r="58" spans="2:19">
       <c r="B58" t="s">
-        <v>327</v>
+        <v>292</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>93</v>
@@ -3613,13 +2596,7 @@
       <c r="Q58" s="1"/>
       <c r="S58" s="1"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>328</v>
-      </c>
+    <row r="59" spans="2:19">
       <c r="C59" s="1" t="s">
         <v>93</v>
       </c>
@@ -3641,13 +2618,7 @@
       <c r="Q59" s="1"/>
       <c r="S59" s="1"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>329</v>
-      </c>
+    <row r="60" spans="2:19">
       <c r="C60" s="1" t="s">
         <v>93</v>
       </c>
@@ -3669,13 +2640,7 @@
       <c r="Q60" s="1"/>
       <c r="S60" s="1"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>330</v>
-      </c>
+    <row r="61" spans="2:19">
       <c r="C61" s="1" t="s">
         <v>93</v>
       </c>
@@ -3697,12 +2662,9 @@
       <c r="Q61" s="1"/>
       <c r="S61" s="1"/>
     </row>
-    <row r="62" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>61</v>
-      </c>
+    <row r="62" spans="2:19" ht="27.6">
       <c r="B62" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>93</v>
@@ -3725,12 +2687,9 @@
       <c r="Q62" s="1"/>
       <c r="S62" s="1"/>
     </row>
-    <row r="63" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>62</v>
-      </c>
+    <row r="63" spans="2:19" ht="27.6">
       <c r="B63" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>93</v>
@@ -3753,12 +2712,9 @@
       <c r="Q63" s="1"/>
       <c r="S63" s="1"/>
     </row>
-    <row r="64" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>63</v>
-      </c>
+    <row r="64" spans="2:19" ht="27.6">
       <c r="B64" t="s">
-        <v>333</v>
+        <v>290</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>93</v>
@@ -3781,13 +2737,7 @@
       <c r="Q64" s="1"/>
       <c r="S64" s="1"/>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
-        <v>334</v>
-      </c>
+    <row r="65" spans="3:22">
       <c r="C65" s="1" t="s">
         <v>100</v>
       </c>
@@ -3808,13 +2758,7 @@
       <c r="Q65" s="1"/>
       <c r="S65" s="1"/>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="B66" t="s">
-        <v>335</v>
-      </c>
+    <row r="66" spans="3:22">
       <c r="C66" s="1" t="s">
         <v>104</v>
       </c>
@@ -3836,13 +2780,7 @@
       <c r="Q66" s="1"/>
       <c r="S66" s="1"/>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67" t="s">
-        <v>336</v>
-      </c>
+    <row r="67" spans="3:22">
       <c r="C67" s="1" t="s">
         <v>104</v>
       </c>
@@ -3864,13 +2802,7 @@
       <c r="Q67" s="1"/>
       <c r="S67" s="1"/>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68" t="s">
-        <v>337</v>
-      </c>
+    <row r="68" spans="3:22">
       <c r="C68" s="1" t="s">
         <v>104</v>
       </c>
@@ -3892,13 +2824,7 @@
       <c r="Q68" s="1"/>
       <c r="S68" s="1"/>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69" t="s">
-        <v>338</v>
-      </c>
+    <row r="69" spans="3:22">
       <c r="C69" s="1" t="s">
         <v>104</v>
       </c>
@@ -3920,13 +2846,7 @@
       <c r="Q69" s="1"/>
       <c r="S69" s="1"/>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70" t="s">
-        <v>339</v>
-      </c>
+    <row r="70" spans="3:22">
       <c r="C70" s="1" t="s">
         <v>104</v>
       </c>
@@ -3948,13 +2868,7 @@
       <c r="Q70" s="1"/>
       <c r="S70" s="1"/>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71" t="s">
-        <v>340</v>
-      </c>
+    <row r="71" spans="3:22">
       <c r="C71" s="1" t="s">
         <v>104</v>
       </c>
@@ -3977,13 +2891,7 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72" t="s">
-        <v>341</v>
-      </c>
+    <row r="72" spans="3:22">
       <c r="C72" s="1" t="s">
         <v>104</v>
       </c>
@@ -4006,13 +2914,7 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="B73" t="s">
-        <v>342</v>
-      </c>
+    <row r="73" spans="3:22">
       <c r="C73" s="1" t="s">
         <v>104</v>
       </c>
@@ -4035,13 +2937,7 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>73</v>
-      </c>
-      <c r="B74" t="s">
-        <v>343</v>
-      </c>
+    <row r="74" spans="3:22">
       <c r="C74" s="1" t="s">
         <v>104</v>
       </c>
@@ -4066,13 +2962,7 @@
       <c r="U74" s="1"/>
       <c r="V74" s="1"/>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>74</v>
-      </c>
-      <c r="B75" t="s">
-        <v>344</v>
-      </c>
+    <row r="75" spans="3:22">
       <c r="C75" s="1" t="s">
         <v>104</v>
       </c>
@@ -4097,13 +2987,7 @@
       <c r="U75" s="1"/>
       <c r="V75" s="1"/>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>75</v>
-      </c>
-      <c r="B76" t="s">
-        <v>345</v>
-      </c>
+    <row r="76" spans="3:22">
       <c r="C76" s="1" t="s">
         <v>104</v>
       </c>
@@ -4128,13 +3012,7 @@
       <c r="U76" s="1"/>
       <c r="V76" s="1"/>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>76</v>
-      </c>
-      <c r="B77" t="s">
-        <v>346</v>
-      </c>
+    <row r="77" spans="3:22">
       <c r="C77" s="1" t="s">
         <v>104</v>
       </c>
@@ -4159,13 +3037,7 @@
       <c r="U77" s="1"/>
       <c r="V77" s="1"/>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>77</v>
-      </c>
-      <c r="B78" t="s">
-        <v>347</v>
-      </c>
+    <row r="78" spans="3:22">
       <c r="C78" s="1" t="s">
         <v>104</v>
       </c>
@@ -4190,13 +3062,7 @@
       <c r="U78" s="1"/>
       <c r="V78" s="1"/>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>78</v>
-      </c>
-      <c r="B79" t="s">
-        <v>348</v>
-      </c>
+    <row r="79" spans="3:22">
       <c r="C79" s="1" t="s">
         <v>104</v>
       </c>
@@ -4221,13 +3087,7 @@
       <c r="U79" s="1"/>
       <c r="V79" s="1"/>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>79</v>
-      </c>
-      <c r="B80" t="s">
-        <v>349</v>
-      </c>
+    <row r="80" spans="3:22">
       <c r="C80" s="1" t="s">
         <v>104</v>
       </c>
@@ -4252,13 +3112,7 @@
       <c r="U80" s="1"/>
       <c r="V80" s="1"/>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>80</v>
-      </c>
-      <c r="B81" t="s">
-        <v>350</v>
-      </c>
+    <row r="81" spans="2:23">
       <c r="C81" s="1" t="s">
         <v>104</v>
       </c>
@@ -4283,13 +3137,7 @@
       <c r="U81" s="1"/>
       <c r="V81" s="1"/>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>81</v>
-      </c>
-      <c r="B82" t="s">
-        <v>351</v>
-      </c>
+    <row r="82" spans="2:23">
       <c r="C82" s="1" t="s">
         <v>104</v>
       </c>
@@ -4314,13 +3162,7 @@
       <c r="U82" s="1"/>
       <c r="V82" s="1"/>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>82</v>
-      </c>
-      <c r="B83" t="s">
-        <v>352</v>
-      </c>
+    <row r="83" spans="2:23">
       <c r="C83" s="1" t="s">
         <v>104</v>
       </c>
@@ -4345,13 +3187,7 @@
       <c r="U83" s="1"/>
       <c r="V83" s="1"/>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>83</v>
-      </c>
-      <c r="B84" t="s">
-        <v>353</v>
-      </c>
+    <row r="84" spans="2:23">
       <c r="C84" s="1" t="s">
         <v>104</v>
       </c>
@@ -4376,13 +3212,7 @@
       <c r="U84" s="1"/>
       <c r="V84" s="1"/>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>84</v>
-      </c>
-      <c r="B85" t="s">
-        <v>354</v>
-      </c>
+    <row r="85" spans="2:23">
       <c r="C85" s="1" t="s">
         <v>104</v>
       </c>
@@ -4406,13 +3236,7 @@
       <c r="T85" s="1"/>
       <c r="W85" s="1"/>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>85</v>
-      </c>
-      <c r="B86" t="s">
-        <v>355</v>
-      </c>
+    <row r="86" spans="2:23">
       <c r="C86" s="1" t="s">
         <v>104</v>
       </c>
@@ -4436,12 +3260,9 @@
       <c r="T86" s="1"/>
       <c r="W86" s="1"/>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>86</v>
-      </c>
+    <row r="87" spans="2:23">
       <c r="B87" t="s">
-        <v>356</v>
+        <v>275</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>104</v>
@@ -4466,12 +3287,9 @@
       <c r="T87" s="1"/>
       <c r="W87" s="1"/>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>87</v>
-      </c>
+    <row r="88" spans="2:23">
       <c r="B88" t="s">
-        <v>357</v>
+        <v>276</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>104</v>
@@ -4496,13 +3314,7 @@
       <c r="T88" s="1"/>
       <c r="W88" s="1"/>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>88</v>
-      </c>
-      <c r="B89" t="s">
-        <v>358</v>
-      </c>
+    <row r="89" spans="2:23">
       <c r="C89" s="1" t="s">
         <v>104</v>
       </c>
@@ -4526,13 +3338,7 @@
       <c r="T89" s="1"/>
       <c r="W89" s="1"/>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>89</v>
-      </c>
-      <c r="B90" t="s">
-        <v>359</v>
-      </c>
+    <row r="90" spans="2:23">
       <c r="C90" s="1" t="s">
         <v>104</v>
       </c>
@@ -4556,13 +3362,7 @@
       <c r="T90" s="1"/>
       <c r="W90" s="1"/>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>90</v>
-      </c>
-      <c r="B91" t="s">
-        <v>360</v>
-      </c>
+    <row r="91" spans="2:23">
       <c r="C91" s="1" t="s">
         <v>104</v>
       </c>
@@ -4586,12 +3386,9 @@
       <c r="T91" s="1"/>
       <c r="W91" s="1"/>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>91</v>
-      </c>
+    <row r="92" spans="2:23">
       <c r="B92" t="s">
-        <v>361</v>
+        <v>277</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>104</v>
@@ -4616,12 +3413,9 @@
       <c r="T92" s="1"/>
       <c r="W92" s="1"/>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>92</v>
-      </c>
+    <row r="93" spans="2:23">
       <c r="B93" t="s">
-        <v>362</v>
+        <v>278</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>104</v>
@@ -4646,12 +3440,9 @@
       <c r="T93" s="1"/>
       <c r="W93" s="1"/>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>93</v>
-      </c>
+    <row r="94" spans="2:23">
       <c r="B94" t="s">
-        <v>363</v>
+        <v>270</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>104</v>
@@ -4676,12 +3467,9 @@
       <c r="T94" s="1"/>
       <c r="W94" s="1"/>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>94</v>
-      </c>
+    <row r="95" spans="2:23">
       <c r="B95" t="s">
-        <v>364</v>
+        <v>271</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>104</v>
@@ -4706,12 +3494,9 @@
       <c r="S95" s="1"/>
       <c r="W95" s="1"/>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>95</v>
-      </c>
+    <row r="96" spans="2:23">
       <c r="B96" t="s">
-        <v>365</v>
+        <v>272</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>104</v>
@@ -4736,12 +3521,9 @@
       <c r="S96" s="1"/>
       <c r="W96" s="1"/>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>96</v>
-      </c>
+    <row r="97" spans="2:23">
       <c r="B97" t="s">
-        <v>366</v>
+        <v>273</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>104</v>
@@ -4766,12 +3548,9 @@
       <c r="S97" s="1"/>
       <c r="W97" s="1"/>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>97</v>
-      </c>
+    <row r="98" spans="2:23">
       <c r="B98" t="s">
-        <v>367</v>
+        <v>274</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>104</v>
@@ -4796,28 +3575,12 @@
       <c r="S98" s="1"/>
       <c r="W98" s="1"/>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>98</v>
-      </c>
-      <c r="B99" t="s">
-        <v>368</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>3</v>
-      </c>
+    <row r="99" spans="2:23">
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
@@ -4826,12 +3589,9 @@
       <c r="S99" s="1"/>
       <c r="W99" s="1"/>
     </row>
-    <row r="100" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>99</v>
-      </c>
+    <row r="100" spans="2:23" ht="27.6">
       <c r="B100" t="s">
-        <v>369</v>
+        <v>294</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>116</v>
@@ -4856,12 +3616,9 @@
       <c r="S100" s="1"/>
       <c r="W100" s="1"/>
     </row>
-    <row r="101" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>100</v>
-      </c>
+    <row r="101" spans="2:23" ht="27.6">
       <c r="B101" t="s">
-        <v>370</v>
+        <v>295</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>116</v>
@@ -4887,12 +3644,9 @@
       <c r="T101" s="1"/>
       <c r="W101" s="1"/>
     </row>
-    <row r="102" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>101</v>
-      </c>
+    <row r="102" spans="2:23" ht="27.6">
       <c r="B102" t="s">
-        <v>371</v>
+        <v>296</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>116</v>
@@ -4918,12 +3672,9 @@
       <c r="T102" s="1"/>
       <c r="W102" s="1"/>
     </row>
-    <row r="103" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>102</v>
-      </c>
+    <row r="103" spans="2:23" ht="27.6">
       <c r="B103" t="s">
-        <v>372</v>
+        <v>297</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>116</v>
@@ -4949,13 +3700,7 @@
       <c r="T103" s="1"/>
       <c r="W103" s="1"/>
     </row>
-    <row r="104" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>103</v>
-      </c>
-      <c r="B104" t="s">
-        <v>373</v>
-      </c>
+    <row r="104" spans="2:23" ht="27.6">
       <c r="C104" s="1" t="s">
         <v>116</v>
       </c>
@@ -4980,13 +3725,7 @@
       <c r="T104" s="1"/>
       <c r="W104" s="1"/>
     </row>
-    <row r="105" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>104</v>
-      </c>
-      <c r="B105" t="s">
-        <v>374</v>
-      </c>
+    <row r="105" spans="2:23" ht="27.6">
       <c r="C105" s="1" t="s">
         <v>116</v>
       </c>
@@ -5011,13 +3750,7 @@
       <c r="T105" s="1"/>
       <c r="W105" s="1"/>
     </row>
-    <row r="106" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>105</v>
-      </c>
-      <c r="B106" t="s">
-        <v>375</v>
-      </c>
+    <row r="106" spans="2:23" ht="27.6">
       <c r="C106" s="1" t="s">
         <v>116</v>
       </c>
@@ -5042,13 +3775,7 @@
       <c r="T106" s="1"/>
       <c r="W106" s="1"/>
     </row>
-    <row r="107" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>106</v>
-      </c>
-      <c r="B107" t="s">
-        <v>376</v>
-      </c>
+    <row r="107" spans="2:23" ht="27.6">
       <c r="C107" s="1" t="s">
         <v>116</v>
       </c>
@@ -5073,13 +3800,7 @@
       <c r="T107" s="1"/>
       <c r="W107" s="1"/>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>107</v>
-      </c>
-      <c r="B108" t="s">
-        <v>377</v>
-      </c>
+    <row r="108" spans="2:23">
       <c r="C108" s="1" t="s">
         <v>116</v>
       </c>
@@ -5104,13 +3825,7 @@
       <c r="T108" s="1"/>
       <c r="W108" s="1"/>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>108</v>
-      </c>
-      <c r="B109" t="s">
-        <v>378</v>
-      </c>
+    <row r="109" spans="2:23">
       <c r="C109" s="1" t="s">
         <v>116</v>
       </c>
@@ -5135,13 +3850,7 @@
       <c r="T109" s="1"/>
       <c r="W109" s="1"/>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>109</v>
-      </c>
-      <c r="B110" t="s">
-        <v>379</v>
-      </c>
+    <row r="110" spans="2:23">
       <c r="C110" s="1" t="s">
         <v>116</v>
       </c>
@@ -5166,13 +3875,7 @@
       <c r="T110" s="1"/>
       <c r="W110" s="1"/>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>110</v>
-      </c>
-      <c r="B111" t="s">
-        <v>380</v>
-      </c>
+    <row r="111" spans="2:23">
       <c r="C111" s="1" t="s">
         <v>116</v>
       </c>
@@ -5197,13 +3900,7 @@
       <c r="T111" s="1"/>
       <c r="W111" s="1"/>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>111</v>
-      </c>
-      <c r="B112" t="s">
-        <v>381</v>
-      </c>
+    <row r="112" spans="2:23">
       <c r="C112" s="1" t="s">
         <v>104</v>
       </c>
@@ -5227,13 +3924,7 @@
       <c r="T112" s="1"/>
       <c r="W112" s="1"/>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>112</v>
-      </c>
-      <c r="B113" t="s">
-        <v>382</v>
-      </c>
+    <row r="113" spans="3:23">
       <c r="C113" s="1" t="s">
         <v>129</v>
       </c>
@@ -5257,13 +3948,7 @@
       <c r="T113" s="1"/>
       <c r="W113" s="1"/>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>113</v>
-      </c>
-      <c r="B114" t="s">
-        <v>383</v>
-      </c>
+    <row r="114" spans="3:23">
       <c r="C114" s="1" t="s">
         <v>129</v>
       </c>
@@ -5287,13 +3972,7 @@
       <c r="T114" s="1"/>
       <c r="W114" s="1"/>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>114</v>
-      </c>
-      <c r="B115" t="s">
-        <v>384</v>
-      </c>
+    <row r="115" spans="3:23">
       <c r="C115" s="1" t="s">
         <v>129</v>
       </c>
@@ -5317,13 +3996,7 @@
       <c r="T115" s="1"/>
       <c r="W115" s="1"/>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>115</v>
-      </c>
-      <c r="B116" t="s">
-        <v>385</v>
-      </c>
+    <row r="116" spans="3:23">
       <c r="C116" s="1" t="s">
         <v>129</v>
       </c>
@@ -5347,13 +4020,7 @@
       <c r="T116" s="1"/>
       <c r="W116" s="1"/>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>116</v>
-      </c>
-      <c r="B117" t="s">
-        <v>386</v>
-      </c>
+    <row r="117" spans="3:23">
       <c r="C117" s="1" t="s">
         <v>129</v>
       </c>
@@ -5377,13 +4044,7 @@
       <c r="T117" s="1"/>
       <c r="W117" s="1"/>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>117</v>
-      </c>
-      <c r="B118" t="s">
-        <v>387</v>
-      </c>
+    <row r="118" spans="3:23">
       <c r="C118" s="1" t="s">
         <v>129</v>
       </c>
@@ -5405,13 +4066,7 @@
       <c r="S118" s="1"/>
       <c r="W118" s="1"/>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>118</v>
-      </c>
-      <c r="B119" t="s">
-        <v>388</v>
-      </c>
+    <row r="119" spans="3:23">
       <c r="C119" s="1" t="s">
         <v>129</v>
       </c>
@@ -5434,13 +4089,7 @@
       <c r="S119" s="1"/>
       <c r="W119" s="1"/>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>119</v>
-      </c>
-      <c r="B120" t="s">
-        <v>389</v>
-      </c>
+    <row r="120" spans="3:23">
       <c r="C120" s="1" t="s">
         <v>129</v>
       </c>
@@ -5457,13 +4106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>120</v>
-      </c>
-      <c r="B121" t="s">
-        <v>390</v>
-      </c>
+    <row r="121" spans="3:23">
       <c r="C121" s="1" t="s">
         <v>129</v>
       </c>
@@ -5480,13 +4123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>121</v>
-      </c>
-      <c r="B122" t="s">
-        <v>391</v>
-      </c>
+    <row r="122" spans="3:23">
       <c r="C122" s="1" t="s">
         <v>129</v>
       </c>
@@ -5503,13 +4140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>122</v>
-      </c>
-      <c r="B123" t="s">
-        <v>392</v>
-      </c>
+    <row r="123" spans="3:23">
       <c r="C123" s="1" t="s">
         <v>129</v>
       </c>
@@ -5526,13 +4157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>123</v>
-      </c>
-      <c r="B124" t="s">
-        <v>393</v>
-      </c>
+    <row r="124" spans="3:23">
       <c r="C124" s="1" t="s">
         <v>129</v>
       </c>
@@ -5549,13 +4174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>124</v>
-      </c>
-      <c r="B125" t="s">
-        <v>394</v>
-      </c>
+    <row r="125" spans="3:23">
       <c r="C125" s="1" t="s">
         <v>129</v>
       </c>
@@ -5572,13 +4191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>125</v>
-      </c>
-      <c r="B126" t="s">
-        <v>395</v>
-      </c>
+    <row r="126" spans="3:23">
       <c r="C126" s="1" t="s">
         <v>129</v>
       </c>
@@ -5595,13 +4208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>126</v>
-      </c>
-      <c r="B127" t="s">
-        <v>396</v>
-      </c>
+    <row r="127" spans="3:23">
       <c r="C127" s="1" t="s">
         <v>129</v>
       </c>
@@ -5618,13 +4225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>127</v>
-      </c>
-      <c r="B128" t="s">
-        <v>397</v>
-      </c>
+    <row r="128" spans="3:23">
       <c r="C128" s="1" t="s">
         <v>129</v>
       </c>
@@ -5641,13 +4242,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>128</v>
-      </c>
-      <c r="B129" t="s">
-        <v>398</v>
-      </c>
+    <row r="129" spans="3:8">
       <c r="C129" s="1" t="s">
         <v>129</v>
       </c>
@@ -5664,13 +4259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>129</v>
-      </c>
-      <c r="B130" t="s">
-        <v>399</v>
-      </c>
+    <row r="130" spans="3:8">
       <c r="C130" s="1" t="s">
         <v>129</v>
       </c>
@@ -5687,13 +4276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>130</v>
-      </c>
-      <c r="B131" t="s">
-        <v>400</v>
-      </c>
+    <row r="131" spans="3:8">
       <c r="C131" s="1" t="s">
         <v>130</v>
       </c>
@@ -5708,13 +4291,7 @@
       </c>
       <c r="H131" s="1"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>131</v>
-      </c>
-      <c r="B132" t="s">
-        <v>401</v>
-      </c>
+    <row r="132" spans="3:8">
       <c r="C132" s="1" t="s">
         <v>130</v>
       </c>
@@ -5729,13 +4306,7 @@
       </c>
       <c r="H132" s="1"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>132</v>
-      </c>
-      <c r="B133" t="s">
-        <v>402</v>
-      </c>
+    <row r="133" spans="3:8">
       <c r="C133" s="1" t="s">
         <v>130</v>
       </c>
@@ -5750,13 +4321,7 @@
       </c>
       <c r="H133" s="1"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>133</v>
-      </c>
-      <c r="B134" t="s">
-        <v>403</v>
-      </c>
+    <row r="134" spans="3:8">
       <c r="C134" s="1" t="s">
         <v>130</v>
       </c>
@@ -5771,13 +4336,7 @@
       </c>
       <c r="H134" s="1"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>134</v>
-      </c>
-      <c r="B135" t="s">
-        <v>404</v>
-      </c>
+    <row r="135" spans="3:8">
       <c r="C135" s="1" t="s">
         <v>130</v>
       </c>
@@ -5792,13 +4351,7 @@
       </c>
       <c r="H135" s="1"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>135</v>
-      </c>
-      <c r="B136" t="s">
-        <v>405</v>
-      </c>
+    <row r="136" spans="3:8">
       <c r="C136" s="1" t="s">
         <v>130</v>
       </c>
@@ -5813,13 +4366,7 @@
       </c>
       <c r="H136" s="1"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>136</v>
-      </c>
-      <c r="B137" t="s">
-        <v>406</v>
-      </c>
+    <row r="137" spans="3:8">
       <c r="C137" s="1" t="s">
         <v>130</v>
       </c>
@@ -5834,13 +4381,7 @@
       </c>
       <c r="H137" s="1"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>137</v>
-      </c>
-      <c r="B138" t="s">
-        <v>407</v>
-      </c>
+    <row r="138" spans="3:8">
       <c r="C138" s="1" t="s">
         <v>130</v>
       </c>
@@ -5855,13 +4396,7 @@
       </c>
       <c r="H138" s="1"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>138</v>
-      </c>
-      <c r="B139" t="s">
-        <v>408</v>
-      </c>
+    <row r="139" spans="3:8">
       <c r="C139" s="1" t="s">
         <v>130</v>
       </c>
@@ -5876,13 +4411,7 @@
       </c>
       <c r="H139" s="1"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>139</v>
-      </c>
-      <c r="B140" t="s">
-        <v>409</v>
-      </c>
+    <row r="140" spans="3:8">
       <c r="C140" s="1" t="s">
         <v>130</v>
       </c>
@@ -5897,13 +4426,7 @@
       </c>
       <c r="H140" s="1"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>140</v>
-      </c>
-      <c r="B141" t="s">
-        <v>410</v>
-      </c>
+    <row r="141" spans="3:8">
       <c r="C141" s="1" t="s">
         <v>130</v>
       </c>
@@ -5918,13 +4441,7 @@
       </c>
       <c r="H141" s="1"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>141</v>
-      </c>
-      <c r="B142" t="s">
-        <v>411</v>
-      </c>
+    <row r="142" spans="3:8">
       <c r="C142" s="1" t="s">
         <v>130</v>
       </c>
@@ -5939,13 +4456,7 @@
       </c>
       <c r="H142" s="1"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>142</v>
-      </c>
-      <c r="B143" t="s">
-        <v>412</v>
-      </c>
+    <row r="143" spans="3:8">
       <c r="C143" s="1" t="s">
         <v>130</v>
       </c>
@@ -5960,13 +4471,7 @@
       </c>
       <c r="H143" s="1"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>143</v>
-      </c>
-      <c r="B144" t="s">
-        <v>413</v>
-      </c>
+    <row r="144" spans="3:8">
       <c r="C144" s="1" t="s">
         <v>130</v>
       </c>
@@ -5981,13 +4486,7 @@
       </c>
       <c r="H144" s="1"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>144</v>
-      </c>
-      <c r="B145" t="s">
-        <v>414</v>
-      </c>
+    <row r="145" spans="3:10">
       <c r="C145" s="1" t="s">
         <v>130</v>
       </c>
@@ -6002,13 +4501,7 @@
       </c>
       <c r="H145" s="1"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>145</v>
-      </c>
-      <c r="B146" t="s">
-        <v>415</v>
-      </c>
+    <row r="146" spans="3:10">
       <c r="C146" s="1" t="s">
         <v>130</v>
       </c>
@@ -6023,13 +4516,7 @@
       </c>
       <c r="H146" s="1"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>146</v>
-      </c>
-      <c r="B147" t="s">
-        <v>416</v>
-      </c>
+    <row r="147" spans="3:10">
       <c r="C147" s="1" t="s">
         <v>130</v>
       </c>
@@ -6044,13 +4531,7 @@
       </c>
       <c r="H147" s="1"/>
     </row>
-    <row r="148" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>147</v>
-      </c>
-      <c r="B148" t="s">
-        <v>417</v>
-      </c>
+    <row r="148" spans="3:10">
       <c r="C148" s="1" t="s">
         <v>130</v>
       </c>
@@ -6065,13 +4546,7 @@
       </c>
       <c r="H148" s="1"/>
     </row>
-    <row r="149" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>148</v>
-      </c>
-      <c r="B149" t="s">
-        <v>418</v>
-      </c>
+    <row r="149" spans="3:10">
       <c r="C149" s="1" t="s">
         <v>130</v>
       </c>
@@ -6086,13 +4561,7 @@
       </c>
       <c r="H149" s="1"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>149</v>
-      </c>
-      <c r="B150" t="s">
-        <v>419</v>
-      </c>
+    <row r="150" spans="3:10">
       <c r="C150" s="1" t="s">
         <v>130</v>
       </c>
@@ -6107,13 +4576,7 @@
       </c>
       <c r="H150" s="1"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>150</v>
-      </c>
-      <c r="B151" t="s">
-        <v>420</v>
-      </c>
+    <row r="151" spans="3:10">
       <c r="C151" s="1" t="s">
         <v>130</v>
       </c>
@@ -6128,13 +4591,7 @@
       </c>
       <c r="H151" s="1"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>151</v>
-      </c>
-      <c r="B152" t="s">
-        <v>421</v>
-      </c>
+    <row r="152" spans="3:10">
       <c r="C152" s="1" t="s">
         <v>130</v>
       </c>
@@ -6149,13 +4606,7 @@
       </c>
       <c r="H152" s="1"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>152</v>
-      </c>
-      <c r="B153" t="s">
-        <v>422</v>
-      </c>
+    <row r="153" spans="3:10">
       <c r="C153" s="1" t="s">
         <v>130</v>
       </c>
@@ -6170,13 +4621,7 @@
       </c>
       <c r="H153" s="1"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>153</v>
-      </c>
-      <c r="B154" t="s">
-        <v>423</v>
-      </c>
+    <row r="154" spans="3:10">
       <c r="C154" s="1" t="s">
         <v>130</v>
       </c>
@@ -6191,13 +4636,7 @@
       </c>
       <c r="H154" s="1"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>154</v>
-      </c>
-      <c r="B155" t="s">
-        <v>424</v>
-      </c>
+    <row r="155" spans="3:10">
       <c r="C155" s="1" t="s">
         <v>130</v>
       </c>
@@ -6212,13 +4651,7 @@
       </c>
       <c r="H155" s="1"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>155</v>
-      </c>
-      <c r="B156" t="s">
-        <v>425</v>
-      </c>
+    <row r="156" spans="3:10">
       <c r="C156" s="1" t="s">
         <v>130</v>
       </c>
@@ -6233,13 +4666,7 @@
       </c>
       <c r="H156" s="1"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>156</v>
-      </c>
-      <c r="B157" t="s">
-        <v>426</v>
-      </c>
+    <row r="157" spans="3:10">
       <c r="C157" s="1" t="s">
         <v>130</v>
       </c>
@@ -6254,13 +4681,7 @@
       </c>
       <c r="H157" s="1"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>157</v>
-      </c>
-      <c r="B158" t="s">
-        <v>427</v>
-      </c>
+    <row r="158" spans="3:10">
       <c r="C158" s="1" t="s">
         <v>130</v>
       </c>
@@ -6275,13 +4696,7 @@
       </c>
       <c r="H158" s="1"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>158</v>
-      </c>
-      <c r="B159" t="s">
-        <v>428</v>
-      </c>
+    <row r="159" spans="3:10">
       <c r="C159" s="1" t="s">
         <v>130</v>
       </c>
@@ -6296,13 +4711,7 @@
       </c>
       <c r="H159" s="1"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>159</v>
-      </c>
-      <c r="B160" t="s">
-        <v>429</v>
-      </c>
+    <row r="160" spans="3:10" ht="27.6">
       <c r="C160" s="1" t="s">
         <v>164</v>
       </c>
@@ -6325,12 +4734,9 @@
         <v>168</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>160</v>
-      </c>
+    <row r="161" spans="2:11">
       <c r="B161" t="s">
-        <v>430</v>
+        <v>281</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>164</v>
@@ -6354,12 +4760,9 @@
         <v>168</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>161</v>
-      </c>
+    <row r="162" spans="2:11">
       <c r="B162" t="s">
-        <v>431</v>
+        <v>282</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>164</v>
@@ -6383,13 +4786,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="163" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>162</v>
-      </c>
-      <c r="B163" t="s">
-        <v>432</v>
-      </c>
+    <row r="163" spans="2:11" ht="27.6">
       <c r="C163" s="1" t="s">
         <v>164</v>
       </c>
@@ -6412,13 +4809,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>163</v>
-      </c>
-      <c r="B164" t="s">
-        <v>433</v>
-      </c>
+    <row r="164" spans="2:11">
       <c r="C164" s="1" t="s">
         <v>164</v>
       </c>
@@ -6441,12 +4832,9 @@
         <v>168</v>
       </c>
     </row>
-    <row r="165" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>164</v>
-      </c>
+    <row r="165" spans="2:11" ht="27.6">
       <c r="B165" t="s">
-        <v>434</v>
+        <v>285</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>164</v>
@@ -6455,56 +4843,47 @@
         <v>165</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>177</v>
+        <v>300</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>150</v>
+        <v>3</v>
       </c>
       <c r="I165" s="1">
         <v>6</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>165</v>
-      </c>
-      <c r="B166" t="s">
-        <v>435</v>
-      </c>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="166" spans="2:11" ht="27.6">
       <c r="C166" s="1" t="s">
         <v>164</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="I166" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <v>166</v>
-      </c>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="167" spans="2:11" ht="41.4">
       <c r="B167" t="s">
-        <v>436</v>
+        <v>283</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>164</v>
@@ -6513,27 +4892,24 @@
         <v>165</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>180</v>
+        <v>299</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="I167" s="1">
         <v>6</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A168">
-        <v>167</v>
-      </c>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="168" spans="2:11" ht="27.6">
       <c r="B168" t="s">
-        <v>437</v>
+        <v>284</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>164</v>
@@ -6542,13 +4918,13 @@
         <v>169</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>133</v>
+        <v>3</v>
       </c>
       <c r="I168" s="1">
         <v>4</v>
@@ -6557,27 +4933,21 @@
         <v>168</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>168</v>
-      </c>
-      <c r="B169" t="s">
-        <v>438</v>
-      </c>
+    <row r="169" spans="2:11">
       <c r="C169" s="1" t="s">
         <v>164</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="I169" s="1">
         <v>6</v>
@@ -6586,56 +4956,47 @@
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>169</v>
-      </c>
+    <row r="170" spans="2:11">
       <c r="B170" t="s">
-        <v>439</v>
+        <v>280</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>164</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>166</v>
+        <v>298</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>188</v>
+        <v>133</v>
       </c>
       <c r="I170" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A171">
-        <v>170</v>
-      </c>
-      <c r="B171" t="s">
-        <v>440</v>
-      </c>
+    <row r="171" spans="2:11">
       <c r="C171" s="1" t="s">
         <v>164</v>
       </c>
       <c r="D171" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E171" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E171" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="F171" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="I171" s="1">
         <v>6</v>
@@ -6644,901 +5005,697 @@
         <v>168</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A172">
-        <v>171</v>
-      </c>
+    <row r="172" spans="2:11" ht="31.8" customHeight="1">
       <c r="B172" t="s">
-        <v>441</v>
+        <v>279</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>65</v>
+        <v>164</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H172" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="K172" s="1"/>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A173">
-        <v>172</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="I172" s="1">
+        <v>6</v>
+      </c>
+      <c r="J172" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="173" spans="2:11" ht="31.8" customHeight="1">
       <c r="B173" t="s">
-        <v>442</v>
+        <v>286</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>65</v>
+        <v>164</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>192</v>
+        <v>11</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>193</v>
+        <v>301</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H173" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>173</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="I173" s="1">
+        <v>6</v>
+      </c>
+      <c r="J173" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="174" spans="2:11" ht="31.8" customHeight="1">
       <c r="B174" t="s">
-        <v>443</v>
+        <v>287</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>65</v>
+        <v>164</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>193</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="F174" s="1"/>
       <c r="G174" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H174" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>174</v>
-      </c>
-      <c r="B175" t="s">
-        <v>444</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="I174" s="1">
+        <v>6</v>
+      </c>
+      <c r="J174" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="175" spans="2:11">
       <c r="C175" s="1" t="s">
-        <v>65</v>
+        <v>164</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H175" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A176">
-        <v>175</v>
-      </c>
-      <c r="B176" t="s">
-        <v>445</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="I175" s="1">
+        <v>6</v>
+      </c>
+      <c r="J175" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="176" spans="2:11">
       <c r="C176" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E176" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F176" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F176" s="1" t="s">
+      <c r="G176" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H176" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G176" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H176" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>176</v>
-      </c>
-      <c r="B177" t="s">
-        <v>446</v>
-      </c>
+      <c r="K176" s="1"/>
+    </row>
+    <row r="177" spans="3:11">
       <c r="C177" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E177" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F177" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F177" s="1" t="s">
+      <c r="G177" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H177" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G177" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H177" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>177</v>
-      </c>
-      <c r="B178" t="s">
-        <v>447</v>
-      </c>
+    </row>
+    <row r="178" spans="3:11">
       <c r="C178" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E178" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F178" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F178" s="1" t="s">
+      <c r="G178" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H178" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G178" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H178" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A179">
-        <v>178</v>
-      </c>
-      <c r="B179" t="s">
-        <v>448</v>
-      </c>
+    </row>
+    <row r="179" spans="3:11">
       <c r="C179" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E179" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F179" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F179" s="1" t="s">
+      <c r="G179" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H179" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G179" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H179" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A180">
-        <v>179</v>
-      </c>
-      <c r="B180" t="s">
-        <v>449</v>
-      </c>
+    </row>
+    <row r="180" spans="3:11">
       <c r="C180" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E180" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F180" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F180" s="1" t="s">
+      <c r="G180" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H180" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G180" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H180" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A181">
-        <v>180</v>
-      </c>
-      <c r="B181" t="s">
-        <v>450</v>
-      </c>
+    </row>
+    <row r="181" spans="3:11">
       <c r="C181" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E181" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F181" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F181" s="1" t="s">
+      <c r="G181" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H181" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G181" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H181" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A182">
-        <v>181</v>
-      </c>
-      <c r="B182" t="s">
-        <v>451</v>
-      </c>
+    </row>
+    <row r="182" spans="3:11">
       <c r="C182" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E182" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F182" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F182" s="1" t="s">
+      <c r="G182" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H182" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G182" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H182" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A183">
-        <v>182</v>
-      </c>
-      <c r="B183" t="s">
-        <v>452</v>
-      </c>
+    </row>
+    <row r="183" spans="3:11">
       <c r="C183" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E183" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F183" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F183" s="1" t="s">
+      <c r="G183" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H183" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G183" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H183" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A184">
-        <v>183</v>
-      </c>
-      <c r="B184" t="s">
-        <v>453</v>
-      </c>
+    </row>
+    <row r="184" spans="3:11">
       <c r="C184" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E184" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F184" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F184" s="1" t="s">
+      <c r="G184" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H184" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G184" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H184" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A185">
-        <v>184</v>
-      </c>
-      <c r="B185" t="s">
-        <v>454</v>
-      </c>
+    </row>
+    <row r="185" spans="3:11">
       <c r="C185" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E185" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F185" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F185" s="1" t="s">
+      <c r="G185" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H185" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G185" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H185" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A186">
-        <v>185</v>
-      </c>
-      <c r="B186" t="s">
-        <v>455</v>
-      </c>
+    </row>
+    <row r="186" spans="3:11">
       <c r="C186" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E186" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F186" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F186" s="1" t="s">
+      <c r="G186" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H186" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G186" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H186" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A187">
-        <v>186</v>
-      </c>
-      <c r="B187" t="s">
-        <v>456</v>
-      </c>
+    </row>
+    <row r="187" spans="3:11">
       <c r="C187" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E187" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F187" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F187" s="1" t="s">
+      <c r="G187" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H187" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G187" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H187" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A188">
-        <v>187</v>
-      </c>
-      <c r="B188" t="s">
-        <v>457</v>
-      </c>
+    </row>
+    <row r="188" spans="3:11">
       <c r="C188" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>197</v>
+        <v>3</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="K188" s="1"/>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A189">
-        <v>188</v>
-      </c>
-      <c r="B189" t="s">
-        <v>458</v>
-      </c>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="189" spans="3:11">
       <c r="C189" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="G189" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="K189" s="1"/>
-    </row>
-    <row r="190" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A190">
-        <v>189</v>
-      </c>
-      <c r="B190" t="s">
-        <v>459</v>
-      </c>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="190" spans="3:11">
       <c r="C190" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E190" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H190" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="191" spans="3:11">
+      <c r="C191" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H191" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="192" spans="3:11">
+      <c r="C192" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H192" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K192" s="1"/>
+    </row>
+    <row r="193" spans="3:11">
+      <c r="C193" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H193" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="K193" s="1"/>
+    </row>
+    <row r="194" spans="3:11">
+      <c r="C194" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F194" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F190" s="1" t="s">
+      <c r="G194" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H194" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K194" s="1"/>
+    </row>
+    <row r="195" spans="3:11" ht="27.6">
+      <c r="C195" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G190" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H190" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="K190" s="1"/>
-    </row>
-    <row r="191" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A191">
-        <v>190</v>
-      </c>
-      <c r="B191" t="s">
-        <v>460</v>
-      </c>
-      <c r="C191" s="1" t="s">
+      <c r="E195" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E191" s="1" t="s">
+      <c r="F195" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F191" s="1" t="s">
+      <c r="G195" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H195" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K195" s="1"/>
+    </row>
+    <row r="196" spans="3:11" ht="27.6">
+      <c r="C196" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H196" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="197" spans="3:11" ht="27.6">
+      <c r="C197" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G197" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H197" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="198" spans="3:11" ht="27.6">
+      <c r="C198" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F198" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="G191" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H191" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="K191" s="1"/>
-    </row>
-    <row r="192" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A192">
-        <v>191</v>
-      </c>
-      <c r="B192" t="s">
-        <v>461</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F192" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="G192" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H192" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A193">
-        <v>192</v>
-      </c>
-      <c r="B193" t="s">
-        <v>462</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F193" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="G193" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H193" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A194">
+      <c r="G198" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H198" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B194" t="s">
-        <v>463</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F194" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="G194" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H194" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="K194" s="1"/>
-    </row>
-    <row r="195" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A195">
-        <v>194</v>
-      </c>
-      <c r="B195" t="s">
-        <v>464</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F195" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G195" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H195" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="K195" s="1"/>
-    </row>
-    <row r="196" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A196">
-        <v>195</v>
-      </c>
-      <c r="B196" t="s">
-        <v>465</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F196" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G196" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H196" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="K196" s="1"/>
-    </row>
-    <row r="197" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A197">
-        <v>196</v>
-      </c>
-      <c r="B197" t="s">
-        <v>466</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F197" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="G197" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="H197" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="K197" s="1"/>
-    </row>
-    <row r="198" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A198">
-        <v>197</v>
-      </c>
-      <c r="B198" t="s">
-        <v>467</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F198" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="G198" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="H198" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A199">
-        <v>198</v>
-      </c>
-      <c r="B199" t="s">
-        <v>468</v>
-      </c>
+      <c r="K198" s="1"/>
+    </row>
+    <row r="199" spans="3:11" ht="27.6">
       <c r="C199" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F199" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G199" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H199" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K199" s="1"/>
+    </row>
+    <row r="200" spans="3:11" ht="27.6">
+      <c r="C200" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H200" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K200" s="1"/>
+    </row>
+    <row r="201" spans="3:11" ht="27.6">
+      <c r="C201" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G201" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="G199" s="1" t="s">
+      <c r="H201" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K201" s="1"/>
+    </row>
+    <row r="202" spans="3:11" ht="27.6">
+      <c r="C202" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H202" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="203" spans="3:11" ht="27.6">
+      <c r="C203" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G203" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H203" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="204" spans="3:11" ht="27.6">
+      <c r="C204" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E204" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="H199" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A200">
-        <v>199</v>
-      </c>
-      <c r="B200" t="s">
-        <v>469</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E200" s="1" t="s">
+      <c r="F204" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="F200" s="1" t="s">
+      <c r="G204" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G200" s="1" t="s">
+      <c r="H204" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="H200" s="1" t="s">
+      <c r="K204" s="1"/>
+    </row>
+    <row r="205" spans="3:11">
+      <c r="C205" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="K200" s="1"/>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A201">
-        <v>200</v>
-      </c>
-      <c r="B201" t="s">
-        <v>470</v>
-      </c>
-      <c r="C201" s="1" t="s">
+      <c r="D205" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D201" s="1" t="s">
+      <c r="E205" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E201" s="1" t="s">
+      <c r="F205" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="F201" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="G201" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K201" s="1"/>
-    </row>
-    <row r="202" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A202">
-        <v>201</v>
-      </c>
-      <c r="B202" t="s">
-        <v>471</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="F202" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G202" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K202" s="1"/>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A203">
-        <v>202</v>
-      </c>
-      <c r="B203" t="s">
-        <v>472</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F203" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G203" s="1"/>
-      <c r="K203" s="1"/>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A204">
-        <v>203</v>
-      </c>
-      <c r="B204" t="s">
-        <v>473</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F204" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G204" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K204" s="1"/>
-    </row>
-    <row r="205" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A205">
-        <v>204</v>
-      </c>
-      <c r="B205" t="s">
-        <v>474</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D205" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E205" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F205" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G205" s="1"/>
+      <c r="G205" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="K205" s="1"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A206">
-        <v>205</v>
-      </c>
-      <c r="B206" t="s">
-        <v>475</v>
-      </c>
+    <row r="206" spans="3:11" ht="27.6">
       <c r="C206" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>54</v>
+        <v>219</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G206" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K206" s="1"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A207">
-        <v>206</v>
-      </c>
-      <c r="B207" t="s">
-        <v>476</v>
-      </c>
+    <row r="207" spans="3:11">
       <c r="C207" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>54</v>
+        <v>221</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="G207" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A208">
-        <v>207</v>
-      </c>
-      <c r="B208" t="s">
-        <v>477</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G207" s="1"/>
+      <c r="K207" s="1"/>
+    </row>
+    <row r="208" spans="3:11">
       <c r="C208" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>53</v>
+        <v>165</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>54</v>
+        <v>223</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G208" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A209">
-        <v>208</v>
-      </c>
-      <c r="B209" t="s">
-        <v>478</v>
-      </c>
+      <c r="K208" s="1"/>
+    </row>
+    <row r="209" spans="3:11">
       <c r="C209" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>53</v>
+        <v>225</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>54</v>
+        <v>223</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="G209" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210">
-        <v>209</v>
-      </c>
-      <c r="B210" t="s">
-        <v>479</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="G209" s="1"/>
+      <c r="K209" s="1"/>
+    </row>
+    <row r="210" spans="3:11">
       <c r="C210" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>53</v>
@@ -7547,21 +5704,16 @@
         <v>54</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G210" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A211">
-        <v>210</v>
-      </c>
-      <c r="B211" t="s">
-        <v>480</v>
-      </c>
+      <c r="K210" s="1"/>
+    </row>
+    <row r="211" spans="3:11">
       <c r="C211" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>53</v>
@@ -7570,21 +5722,15 @@
         <v>54</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G211" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212">
-        <v>211</v>
-      </c>
-      <c r="B212" t="s">
-        <v>481</v>
-      </c>
+    <row r="212" spans="3:11">
       <c r="C212" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>53</v>
@@ -7593,21 +5739,15 @@
         <v>54</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G212" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A213">
-        <v>212</v>
-      </c>
-      <c r="B213" t="s">
-        <v>482</v>
-      </c>
+    <row r="213" spans="3:11">
       <c r="C213" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>53</v>
@@ -7616,21 +5756,15 @@
         <v>54</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G213" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A214">
-        <v>213</v>
-      </c>
-      <c r="B214" t="s">
-        <v>483</v>
-      </c>
+    <row r="214" spans="3:11">
       <c r="C214" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>53</v>
@@ -7639,21 +5773,15 @@
         <v>54</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G214" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A215">
-        <v>214</v>
-      </c>
-      <c r="B215" t="s">
-        <v>484</v>
-      </c>
+    <row r="215" spans="3:11">
       <c r="C215" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>53</v>
@@ -7662,21 +5790,15 @@
         <v>54</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G215" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A216">
+    <row r="216" spans="3:11">
+      <c r="C216" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="B216" t="s">
-        <v>485</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>53</v>
@@ -7685,21 +5807,15 @@
         <v>54</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G216" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A217">
-        <v>216</v>
-      </c>
-      <c r="B217" t="s">
-        <v>486</v>
-      </c>
+    <row r="217" spans="3:11">
       <c r="C217" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>53</v>
@@ -7708,21 +5824,15 @@
         <v>54</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G217" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A218">
-        <v>217</v>
-      </c>
-      <c r="B218" t="s">
-        <v>487</v>
-      </c>
+    <row r="218" spans="3:11">
       <c r="C218" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>53</v>
@@ -7731,21 +5841,15 @@
         <v>54</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G218" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A219">
-        <v>218</v>
-      </c>
-      <c r="B219" t="s">
-        <v>488</v>
-      </c>
+    <row r="219" spans="3:11">
       <c r="C219" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>53</v>
@@ -7754,21 +5858,15 @@
         <v>54</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G219" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A220">
-        <v>219</v>
-      </c>
-      <c r="B220" t="s">
-        <v>489</v>
-      </c>
+    <row r="220" spans="3:11">
       <c r="C220" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>53</v>
@@ -7777,21 +5875,15 @@
         <v>54</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G220" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A221">
-        <v>220</v>
-      </c>
-      <c r="B221" t="s">
-        <v>490</v>
-      </c>
+    <row r="221" spans="3:11">
       <c r="C221" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>53</v>
@@ -7800,21 +5892,15 @@
         <v>54</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G221" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A222">
-        <v>221</v>
-      </c>
-      <c r="B222" t="s">
-        <v>491</v>
-      </c>
+    <row r="222" spans="3:11">
       <c r="C222" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>53</v>
@@ -7823,21 +5909,15 @@
         <v>54</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G222" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A223">
-        <v>222</v>
-      </c>
-      <c r="B223" t="s">
-        <v>492</v>
-      </c>
+    <row r="223" spans="3:11">
       <c r="C223" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>53</v>
@@ -7846,21 +5926,15 @@
         <v>54</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G223" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A224">
-        <v>223</v>
-      </c>
-      <c r="B224" t="s">
-        <v>493</v>
-      </c>
+    <row r="224" spans="3:11">
       <c r="C224" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>53</v>
@@ -7869,21 +5943,15 @@
         <v>54</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G224" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A225">
-        <v>224</v>
-      </c>
-      <c r="B225" t="s">
-        <v>494</v>
-      </c>
+    <row r="225" spans="3:11">
       <c r="C225" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>53</v>
@@ -7892,816 +5960,617 @@
         <v>54</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G225" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A226">
-        <v>225</v>
-      </c>
-      <c r="B226" t="s">
-        <v>495</v>
-      </c>
+    <row r="226" spans="3:11">
       <c r="C226" s="1" t="s">
-        <v>117</v>
+        <v>215</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>229</v>
+        <v>53</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>230</v>
+        <v>54</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G226" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H226" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="K226" s="1"/>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A227">
-        <v>226</v>
-      </c>
-      <c r="B227" t="s">
-        <v>496</v>
-      </c>
+    </row>
+    <row r="227" spans="3:11">
       <c r="C227" s="1" t="s">
-        <v>117</v>
+        <v>215</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>233</v>
+        <v>53</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>230</v>
+        <v>54</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G227" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H227" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="K227" s="1"/>
-    </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A228">
+    </row>
+    <row r="228" spans="3:11">
+      <c r="C228" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F228" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B228" t="s">
-        <v>497</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D228" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E228" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="F228" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="G228" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H228" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A229">
-        <v>228</v>
-      </c>
-      <c r="B229" t="s">
-        <v>498</v>
-      </c>
+    </row>
+    <row r="229" spans="3:11">
       <c r="C229" s="1" t="s">
-        <v>117</v>
+        <v>215</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>233</v>
+        <v>53</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>235</v>
+        <v>54</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H229" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="K229" s="1"/>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A230">
-        <v>229</v>
-      </c>
-      <c r="B230" t="s">
-        <v>499</v>
-      </c>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="3:11">
       <c r="C230" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>36</v>
+        <v>229</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="H230" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K230" s="1"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A231">
-        <v>230</v>
-      </c>
-      <c r="B231" t="s">
-        <v>500</v>
-      </c>
+    <row r="231" spans="3:11">
       <c r="C231" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="G231" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H231" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K231" s="1"/>
     </row>
-    <row r="232" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A232">
-        <v>231</v>
-      </c>
-      <c r="B232" t="s">
-        <v>501</v>
-      </c>
+    <row r="232" spans="3:11">
       <c r="C232" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="H232" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="K232" s="1"/>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A233">
-        <v>232</v>
-      </c>
-      <c r="B233" t="s">
-        <v>502</v>
-      </c>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="3:11">
       <c r="C233" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="H233" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K233" s="1"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A234">
-        <v>233</v>
-      </c>
-      <c r="B234" t="s">
-        <v>503</v>
-      </c>
+    <row r="234" spans="3:11">
       <c r="C234" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="H234" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K234" s="1"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A235">
-        <v>234</v>
-      </c>
-      <c r="B235" t="s">
-        <v>504</v>
-      </c>
+    <row r="235" spans="3:11">
       <c r="C235" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>248</v>
+        <v>203</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="G235" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H235" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K235" s="1"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A236">
-        <v>235</v>
-      </c>
-      <c r="B236" t="s">
-        <v>505</v>
-      </c>
+    <row r="236" spans="3:11">
       <c r="C236" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="H236" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A237">
-        <v>236</v>
-      </c>
-      <c r="B237" t="s">
-        <v>506</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="K236" s="1"/>
+    </row>
+    <row r="237" spans="3:11">
       <c r="C237" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>24</v>
+        <v>243</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G237" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H237" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K237" s="1"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A238">
-        <v>237</v>
-      </c>
-      <c r="B238" t="s">
-        <v>507</v>
-      </c>
+    <row r="238" spans="3:11">
       <c r="C238" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>251</v>
+        <v>203</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="G238" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K238" s="1"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A239">
-        <v>238</v>
-      </c>
-      <c r="B239" t="s">
-        <v>508</v>
-      </c>
+    <row r="239" spans="3:11">
       <c r="C239" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D239" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E239" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E239" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="F239" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="H239" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K239" s="1"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A240">
-        <v>239</v>
-      </c>
-      <c r="B240" t="s">
-        <v>509</v>
-      </c>
+    <row r="240" spans="3:11">
       <c r="C240" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D240" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E240" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E240" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="F240" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A241">
-        <v>240</v>
-      </c>
-      <c r="B241" t="s">
-        <v>510</v>
-      </c>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="241" spans="3:11">
       <c r="C241" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>253</v>
+        <v>24</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A242">
-        <v>241</v>
-      </c>
-      <c r="B242" t="s">
-        <v>511</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="K241" s="1"/>
+    </row>
+    <row r="242" spans="3:11">
       <c r="C242" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>50</v>
+        <v>251</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="H242" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K242" s="1"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A243">
-        <v>242</v>
-      </c>
-      <c r="B243" t="s">
-        <v>512</v>
-      </c>
+    <row r="243" spans="3:11">
       <c r="C243" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>50</v>
+        <v>252</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>50</v>
+        <v>253</v>
       </c>
       <c r="G243" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H243" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A244">
-        <v>243</v>
-      </c>
-      <c r="B244" t="s">
-        <v>513</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="K243" s="1"/>
+    </row>
+    <row r="244" spans="3:11">
       <c r="C244" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G244" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="K244" s="1"/>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A245">
-        <v>244</v>
-      </c>
-      <c r="B245" t="s">
-        <v>514</v>
-      </c>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="245" spans="3:11">
       <c r="C245" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G245" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H245" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A246">
-        <v>245</v>
-      </c>
-      <c r="B246" t="s">
-        <v>515</v>
-      </c>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="246" spans="3:11">
       <c r="C246" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>256</v>
+        <v>50</v>
       </c>
       <c r="G246" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A247">
-        <v>246</v>
-      </c>
-      <c r="B247" t="s">
-        <v>516</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="K246" s="1"/>
+    </row>
+    <row r="247" spans="3:11">
       <c r="C247" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>256</v>
+        <v>50</v>
       </c>
       <c r="G247" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A248">
-        <v>247</v>
-      </c>
-      <c r="B248" t="s">
-        <v>517</v>
-      </c>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="248" spans="3:11">
       <c r="C248" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E248" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F248" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="F248" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="G248" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A249">
-        <v>248</v>
-      </c>
-      <c r="B249" t="s">
-        <v>518</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="K248" s="1"/>
+    </row>
+    <row r="249" spans="3:11">
       <c r="C249" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>204</v>
+        <v>254</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="K249" s="1"/>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A250">
-        <v>249</v>
-      </c>
-      <c r="B250" t="s">
-        <v>519</v>
-      </c>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="250" spans="3:11">
       <c r="C250" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>204</v>
+        <v>254</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G250" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A251">
-        <v>250</v>
-      </c>
-      <c r="B251" t="s">
-        <v>520</v>
-      </c>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="251" spans="3:11">
       <c r="C251" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="G251" s="1"/>
+        <v>255</v>
+      </c>
+      <c r="G251" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="H251" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="K251" s="1"/>
-    </row>
-    <row r="252" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252">
-        <v>251</v>
-      </c>
-      <c r="B252" t="s">
-        <v>521</v>
-      </c>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="252" spans="3:11">
       <c r="C252" s="1" t="s">
-        <v>261</v>
+        <v>117</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>50</v>
+        <v>246</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>36</v>
+        <v>254</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="G252" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="K252" s="1"/>
-    </row>
-    <row r="253" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A253">
-        <v>252</v>
-      </c>
-      <c r="B253" t="s">
-        <v>522</v>
-      </c>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="253" spans="3:11">
       <c r="C253" s="1" t="s">
-        <v>261</v>
+        <v>117</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>50</v>
+        <v>246</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>36</v>
+        <v>203</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="254" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A254">
-        <v>253</v>
-      </c>
-      <c r="B254" t="s">
-        <v>523</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="K253" s="1"/>
+    </row>
+    <row r="254" spans="3:11">
       <c r="C254" s="1" t="s">
-        <v>261</v>
+        <v>117</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>50</v>
+        <v>246</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>36</v>
+        <v>203</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G254" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="H254" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="255" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A255">
-        <v>254</v>
-      </c>
-      <c r="B255" t="s">
-        <v>524</v>
-      </c>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="255" spans="3:11">
       <c r="C255" s="1" t="s">
-        <v>261</v>
+        <v>117</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>50</v>
+        <v>246</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>36</v>
+        <v>258</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="G255" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="G255" s="1"/>
       <c r="H255" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="256" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A256">
-        <v>255</v>
-      </c>
-      <c r="B256" t="s">
-        <v>525</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="K255" s="1"/>
+    </row>
+    <row r="256" spans="3:11" ht="30" customHeight="1">
       <c r="C256" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>50</v>
@@ -8710,129 +6579,180 @@
         <v>36</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G256" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A257">
-        <v>256</v>
-      </c>
-      <c r="B257" t="s">
-        <v>526</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="K256" s="1"/>
+    </row>
+    <row r="257" spans="3:11" ht="27.6">
       <c r="C257" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G257" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H257" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="258" spans="3:11" ht="27.6">
+      <c r="C258" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G258" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H258" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="259" spans="3:11" ht="27.6">
+      <c r="C259" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G259" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H259" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="260" spans="3:11" ht="27.6">
+      <c r="C260" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F260" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G260" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H260" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="261" spans="3:11">
+      <c r="C261" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D261" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D257" s="1" t="s">
+      <c r="E261" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F261" t="s">
         <v>264</v>
       </c>
-      <c r="E257" s="1" t="s">
+      <c r="G261" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K261" s="1"/>
+    </row>
+    <row r="262" spans="3:11">
+      <c r="C262" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F262" t="s">
+        <v>264</v>
+      </c>
+      <c r="G262" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="263" spans="3:11">
+      <c r="C263" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F263" t="s">
+        <v>264</v>
+      </c>
+      <c r="G263" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="264" spans="3:11">
+      <c r="C264" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="F257" t="s">
-        <v>265</v>
-      </c>
-      <c r="G257" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="K257" s="1"/>
-    </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A258">
-        <v>257</v>
-      </c>
-      <c r="B258" t="s">
-        <v>527</v>
-      </c>
-      <c r="C258" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D258" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E258" s="1" t="s">
+      <c r="D264" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F264" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G264" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K264" s="1"/>
+    </row>
+    <row r="265" spans="3:11">
+      <c r="C265" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="F258" t="s">
-        <v>265</v>
-      </c>
-      <c r="G258" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A259">
-        <v>258</v>
-      </c>
-      <c r="B259" t="s">
-        <v>528</v>
-      </c>
-      <c r="C259" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D259" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E259" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="F259" t="s">
-        <v>265</v>
-      </c>
-      <c r="G259" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A260">
-        <v>259</v>
-      </c>
-      <c r="B260" t="s">
-        <v>529</v>
-      </c>
-      <c r="C260" s="1" t="s">
+      <c r="D265" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D260" s="1" t="s">
+      <c r="E265" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="E260" s="1" t="s">
+      <c r="F265" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="F260" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="G260" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K260" s="1"/>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A261">
-        <v>260</v>
-      </c>
-      <c r="B261" t="s">
-        <v>530</v>
-      </c>
-      <c r="C261" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D261" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="E261" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="F261" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="G261" s="1" t="s">
+      <c r="G265" s="1" t="s">
         <v>3</v>
       </c>
     </row>

--- a/database workbook for to be imported.xlsx
+++ b/database workbook for to be imported.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\30079051\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307D894F-B542-4B87-9475-FF89F40F76A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE09543-4F34-4109-92B6-F58C388E02B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A5985029-C304-4E14-B06A-83B2417720C7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{A5985029-C304-4E14-B06A-83B2417720C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="322">
   <si>
     <t>Amplifier</t>
   </si>
@@ -482,12 +482,6 @@
     <t>Evans</t>
   </si>
   <si>
-    <t>Dark red</t>
-  </si>
-  <si>
-    <t>Mapex</t>
-  </si>
-  <si>
     <t>White</t>
   </si>
   <si>
@@ -945,13 +939,76 @@
   </si>
   <si>
     <t>Sunburst</t>
+  </si>
+  <si>
+    <t>BCC00037</t>
+  </si>
+  <si>
+    <t>BCC00038</t>
+  </si>
+  <si>
+    <t>BCC00039</t>
+  </si>
+  <si>
+    <t>BCC00040</t>
+  </si>
+  <si>
+    <t>BCC00041</t>
+  </si>
+  <si>
+    <t>BCC00042</t>
+  </si>
+  <si>
+    <t>BCC00043</t>
+  </si>
+  <si>
+    <t>BCC00044</t>
+  </si>
+  <si>
+    <t>BCC00045</t>
+  </si>
+  <si>
+    <t>BCC00046</t>
+  </si>
+  <si>
+    <t>BCC00047</t>
+  </si>
+  <si>
+    <t>BCC00048</t>
+  </si>
+  <si>
+    <t>BCC00049</t>
+  </si>
+  <si>
+    <t>BCC00050</t>
+  </si>
+  <si>
+    <t>BCC00051</t>
+  </si>
+  <si>
+    <t>BCC00052</t>
+  </si>
+  <si>
+    <t>BCC00053</t>
+  </si>
+  <si>
+    <t>BCC00054</t>
+  </si>
+  <si>
+    <t>BCC00056</t>
+  </si>
+  <si>
+    <t>Olympic</t>
+  </si>
+  <si>
+    <t>BCC00057</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1328,30 +1385,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FDC74E2-49FE-4940-A5E5-5C5F4A30102F}">
-  <dimension ref="A1:W265"/>
+  <dimension ref="A1:W266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="D153" sqref="D153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.59765625" customWidth="1"/>
-    <col min="3" max="3" width="15.296875" customWidth="1"/>
-    <col min="4" max="4" width="14.296875" customWidth="1"/>
-    <col min="5" max="5" width="13.8984375" customWidth="1"/>
-    <col min="6" max="6" width="14.59765625" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="12.59765625" customWidth="1"/>
-    <col min="9" max="9" width="9.296875" customWidth="1"/>
-    <col min="10" max="10" width="14.69921875" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18" customWidth="1"/>
-    <col min="16" max="16" width="13.09765625" customWidth="1"/>
-    <col min="18" max="18" width="13.8984375" customWidth="1"/>
-    <col min="23" max="23" width="11.3984375" customWidth="1"/>
+    <col min="16" max="16" width="13.109375" customWidth="1"/>
+    <col min="18" max="18" width="13.88671875" customWidth="1"/>
+    <col min="23" max="23" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="40.200000000000003" customHeight="1">
+    <row r="1" spans="1:19" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -1377,13 +1435,13 @@
         <v>32</v>
       </c>
       <c r="I1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="25.2" customHeight="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1401,7 +1459,7 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:19" ht="15">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1419,7 +1477,7 @@
       <c r="R3" s="2"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:19" ht="15">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1437,7 +1495,7 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:19" ht="15">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1455,7 +1513,7 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:19" ht="15">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1473,7 +1531,7 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
     </row>
-    <row r="7" spans="1:19" ht="15">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1491,7 +1549,7 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
     </row>
-    <row r="8" spans="1:19" ht="15">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1509,7 +1567,7 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="1:19" ht="15">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>0</v>
       </c>
@@ -1527,7 +1585,7 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1">
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1545,7 +1603,7 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="1:19" ht="15">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1563,7 +1621,7 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="1:19" ht="15">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1581,7 +1639,7 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1">
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1599,7 +1657,7 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1">
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1617,7 +1675,7 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="1:19" ht="15">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1633,7 +1691,7 @@
       <c r="Q15" s="1"/>
       <c r="S15" s="1"/>
     </row>
-    <row r="16" spans="1:19" ht="15">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
         <v>19</v>
       </c>
@@ -1649,7 +1707,7 @@
       <c r="Q16" s="1"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="3:19" ht="15">
+    <row r="17" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>19</v>
       </c>
@@ -1668,7 +1726,7 @@
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
     </row>
-    <row r="18" spans="3:19" ht="15">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>19</v>
       </c>
@@ -1687,7 +1745,7 @@
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
     </row>
-    <row r="19" spans="3:19" ht="15" customHeight="1">
+    <row r="19" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>19</v>
       </c>
@@ -1706,7 +1764,7 @@
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="3:19">
+    <row r="20" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>34</v>
       </c>
@@ -1728,7 +1786,7 @@
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
     </row>
-    <row r="21" spans="3:19">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>34</v>
       </c>
@@ -1750,7 +1808,7 @@
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
     </row>
-    <row r="22" spans="3:19">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>34</v>
       </c>
@@ -1772,7 +1830,7 @@
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
     </row>
-    <row r="23" spans="3:19">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>34</v>
       </c>
@@ -1794,7 +1852,7 @@
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
     </row>
-    <row r="24" spans="3:19" ht="15">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>38</v>
       </c>
@@ -1813,7 +1871,7 @@
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
     </row>
-    <row r="25" spans="3:19" ht="15">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>41</v>
       </c>
@@ -1835,7 +1893,7 @@
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
     </row>
-    <row r="26" spans="3:19" ht="27.6">
+    <row r="26" spans="3:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>45</v>
       </c>
@@ -1857,7 +1915,7 @@
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
     </row>
-    <row r="27" spans="3:19" ht="27.6">
+    <row r="27" spans="3:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>45</v>
       </c>
@@ -1879,7 +1937,7 @@
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
     </row>
-    <row r="28" spans="3:19">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>49</v>
       </c>
@@ -1902,7 +1960,7 @@
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
     </row>
-    <row r="29" spans="3:19">
+    <row r="29" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>45</v>
       </c>
@@ -1925,7 +1983,7 @@
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
     </row>
-    <row r="30" spans="3:19">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>45</v>
       </c>
@@ -1947,7 +2005,7 @@
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
     </row>
-    <row r="31" spans="3:19">
+    <row r="31" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>45</v>
       </c>
@@ -1969,7 +2027,7 @@
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
     </row>
-    <row r="32" spans="3:19">
+    <row r="32" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>45</v>
       </c>
@@ -1992,7 +2050,7 @@
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
     </row>
-    <row r="33" spans="3:19">
+    <row r="33" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>45</v>
       </c>
@@ -2014,7 +2072,7 @@
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
     </row>
-    <row r="34" spans="3:19">
+    <row r="34" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>45</v>
       </c>
@@ -2036,7 +2094,7 @@
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
     </row>
-    <row r="35" spans="3:19">
+    <row r="35" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>61</v>
       </c>
@@ -2059,7 +2117,7 @@
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
     </row>
-    <row r="36" spans="3:19" ht="27.6">
+    <row r="36" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C36" s="1" t="s">
         <v>63</v>
       </c>
@@ -2082,7 +2140,7 @@
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
     </row>
-    <row r="37" spans="3:19" ht="27.6">
+    <row r="37" spans="3:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C37" s="1" t="s">
         <v>0</v>
       </c>
@@ -2105,7 +2163,7 @@
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
     </row>
-    <row r="38" spans="3:19" ht="27.6">
+    <row r="38" spans="3:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>0</v>
       </c>
@@ -2128,7 +2186,7 @@
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
     </row>
-    <row r="39" spans="3:19">
+    <row r="39" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>61</v>
       </c>
@@ -2151,7 +2209,7 @@
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
     </row>
-    <row r="40" spans="3:19">
+    <row r="40" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>0</v>
       </c>
@@ -2174,7 +2232,7 @@
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
     </row>
-    <row r="41" spans="3:19">
+    <row r="41" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>0</v>
       </c>
@@ -2197,7 +2255,7 @@
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
     </row>
-    <row r="42" spans="3:19">
+    <row r="42" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>72</v>
       </c>
@@ -2220,7 +2278,7 @@
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
     </row>
-    <row r="43" spans="3:19" ht="27.6">
+    <row r="43" spans="3:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>72</v>
       </c>
@@ -2243,7 +2301,7 @@
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
     </row>
-    <row r="44" spans="3:19">
+    <row r="44" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>72</v>
       </c>
@@ -2266,7 +2324,7 @@
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
     </row>
-    <row r="45" spans="3:19">
+    <row r="45" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>72</v>
       </c>
@@ -2289,7 +2347,7 @@
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
     </row>
-    <row r="46" spans="3:19">
+    <row r="46" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>77</v>
       </c>
@@ -2312,7 +2370,7 @@
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
     </row>
-    <row r="47" spans="3:19">
+    <row r="47" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>77</v>
       </c>
@@ -2335,7 +2393,7 @@
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
     </row>
-    <row r="48" spans="3:19">
+    <row r="48" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>45</v>
       </c>
@@ -2358,7 +2416,7 @@
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
     </row>
-    <row r="49" spans="2:19">
+    <row r="49" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>77</v>
       </c>
@@ -2381,7 +2439,7 @@
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
     </row>
-    <row r="50" spans="2:19">
+    <row r="50" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>77</v>
       </c>
@@ -2404,7 +2462,7 @@
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
     </row>
-    <row r="51" spans="2:19">
+    <row r="51" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>77</v>
       </c>
@@ -2427,7 +2485,7 @@
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
     </row>
-    <row r="52" spans="2:19">
+    <row r="52" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>77</v>
       </c>
@@ -2450,7 +2508,7 @@
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
     </row>
-    <row r="53" spans="2:19">
+    <row r="53" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>77</v>
       </c>
@@ -2473,7 +2531,7 @@
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
     </row>
-    <row r="54" spans="2:19">
+    <row r="54" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>77</v>
       </c>
@@ -2496,9 +2554,9 @@
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
     </row>
-    <row r="55" spans="2:19">
+    <row r="55" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>93</v>
@@ -2522,7 +2580,7 @@
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
     </row>
-    <row r="56" spans="2:19">
+    <row r="56" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>93</v>
       </c>
@@ -2545,9 +2603,9 @@
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
     </row>
-    <row r="57" spans="2:19">
+    <row r="57" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>93</v>
@@ -2571,9 +2629,9 @@
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
     </row>
-    <row r="58" spans="2:19">
+    <row r="58" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>93</v>
@@ -2596,7 +2654,7 @@
       <c r="Q58" s="1"/>
       <c r="S58" s="1"/>
     </row>
-    <row r="59" spans="2:19">
+    <row r="59" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>93</v>
       </c>
@@ -2618,7 +2676,7 @@
       <c r="Q59" s="1"/>
       <c r="S59" s="1"/>
     </row>
-    <row r="60" spans="2:19">
+    <row r="60" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>93</v>
       </c>
@@ -2640,7 +2698,7 @@
       <c r="Q60" s="1"/>
       <c r="S60" s="1"/>
     </row>
-    <row r="61" spans="2:19">
+    <row r="61" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>93</v>
       </c>
@@ -2662,9 +2720,9 @@
       <c r="Q61" s="1"/>
       <c r="S61" s="1"/>
     </row>
-    <row r="62" spans="2:19" ht="27.6">
+    <row r="62" spans="2:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>93</v>
@@ -2687,9 +2745,9 @@
       <c r="Q62" s="1"/>
       <c r="S62" s="1"/>
     </row>
-    <row r="63" spans="2:19" ht="27.6">
+    <row r="63" spans="2:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>93</v>
@@ -2712,9 +2770,9 @@
       <c r="Q63" s="1"/>
       <c r="S63" s="1"/>
     </row>
-    <row r="64" spans="2:19" ht="27.6">
+    <row r="64" spans="2:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>93</v>
@@ -2737,7 +2795,7 @@
       <c r="Q64" s="1"/>
       <c r="S64" s="1"/>
     </row>
-    <row r="65" spans="3:22">
+    <row r="65" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>100</v>
       </c>
@@ -2758,7 +2816,7 @@
       <c r="Q65" s="1"/>
       <c r="S65" s="1"/>
     </row>
-    <row r="66" spans="3:22">
+    <row r="66" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>104</v>
       </c>
@@ -2780,7 +2838,7 @@
       <c r="Q66" s="1"/>
       <c r="S66" s="1"/>
     </row>
-    <row r="67" spans="3:22">
+    <row r="67" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>104</v>
       </c>
@@ -2802,7 +2860,7 @@
       <c r="Q67" s="1"/>
       <c r="S67" s="1"/>
     </row>
-    <row r="68" spans="3:22">
+    <row r="68" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>104</v>
       </c>
@@ -2824,7 +2882,7 @@
       <c r="Q68" s="1"/>
       <c r="S68" s="1"/>
     </row>
-    <row r="69" spans="3:22">
+    <row r="69" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>104</v>
       </c>
@@ -2846,7 +2904,7 @@
       <c r="Q69" s="1"/>
       <c r="S69" s="1"/>
     </row>
-    <row r="70" spans="3:22">
+    <row r="70" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>104</v>
       </c>
@@ -2868,7 +2926,7 @@
       <c r="Q70" s="1"/>
       <c r="S70" s="1"/>
     </row>
-    <row r="71" spans="3:22">
+    <row r="71" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>104</v>
       </c>
@@ -2891,7 +2949,7 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72" spans="3:22">
+    <row r="72" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>104</v>
       </c>
@@ -2914,7 +2972,7 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row r="73" spans="3:22">
+    <row r="73" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>104</v>
       </c>
@@ -2937,7 +2995,7 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row r="74" spans="3:22">
+    <row r="74" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>104</v>
       </c>
@@ -2962,7 +3020,7 @@
       <c r="U74" s="1"/>
       <c r="V74" s="1"/>
     </row>
-    <row r="75" spans="3:22">
+    <row r="75" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>104</v>
       </c>
@@ -2987,7 +3045,7 @@
       <c r="U75" s="1"/>
       <c r="V75" s="1"/>
     </row>
-    <row r="76" spans="3:22">
+    <row r="76" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>104</v>
       </c>
@@ -3012,7 +3070,7 @@
       <c r="U76" s="1"/>
       <c r="V76" s="1"/>
     </row>
-    <row r="77" spans="3:22">
+    <row r="77" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>104</v>
       </c>
@@ -3037,7 +3095,7 @@
       <c r="U77" s="1"/>
       <c r="V77" s="1"/>
     </row>
-    <row r="78" spans="3:22">
+    <row r="78" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C78" s="1" t="s">
         <v>104</v>
       </c>
@@ -3062,7 +3120,7 @@
       <c r="U78" s="1"/>
       <c r="V78" s="1"/>
     </row>
-    <row r="79" spans="3:22">
+    <row r="79" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C79" s="1" t="s">
         <v>104</v>
       </c>
@@ -3087,7 +3145,7 @@
       <c r="U79" s="1"/>
       <c r="V79" s="1"/>
     </row>
-    <row r="80" spans="3:22">
+    <row r="80" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>104</v>
       </c>
@@ -3112,7 +3170,7 @@
       <c r="U80" s="1"/>
       <c r="V80" s="1"/>
     </row>
-    <row r="81" spans="2:23">
+    <row r="81" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>104</v>
       </c>
@@ -3137,7 +3195,7 @@
       <c r="U81" s="1"/>
       <c r="V81" s="1"/>
     </row>
-    <row r="82" spans="2:23">
+    <row r="82" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>104</v>
       </c>
@@ -3162,7 +3220,7 @@
       <c r="U82" s="1"/>
       <c r="V82" s="1"/>
     </row>
-    <row r="83" spans="2:23">
+    <row r="83" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>104</v>
       </c>
@@ -3187,7 +3245,7 @@
       <c r="U83" s="1"/>
       <c r="V83" s="1"/>
     </row>
-    <row r="84" spans="2:23">
+    <row r="84" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>104</v>
       </c>
@@ -3212,7 +3270,7 @@
       <c r="U84" s="1"/>
       <c r="V84" s="1"/>
     </row>
-    <row r="85" spans="2:23">
+    <row r="85" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>104</v>
       </c>
@@ -3236,7 +3294,7 @@
       <c r="T85" s="1"/>
       <c r="W85" s="1"/>
     </row>
-    <row r="86" spans="2:23">
+    <row r="86" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>104</v>
       </c>
@@ -3260,9 +3318,9 @@
       <c r="T86" s="1"/>
       <c r="W86" s="1"/>
     </row>
-    <row r="87" spans="2:23">
+    <row r="87" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>104</v>
@@ -3287,9 +3345,9 @@
       <c r="T87" s="1"/>
       <c r="W87" s="1"/>
     </row>
-    <row r="88" spans="2:23">
+    <row r="88" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>104</v>
@@ -3314,7 +3372,7 @@
       <c r="T88" s="1"/>
       <c r="W88" s="1"/>
     </row>
-    <row r="89" spans="2:23">
+    <row r="89" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>104</v>
       </c>
@@ -3338,7 +3396,7 @@
       <c r="T89" s="1"/>
       <c r="W89" s="1"/>
     </row>
-    <row r="90" spans="2:23">
+    <row r="90" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>104</v>
       </c>
@@ -3362,7 +3420,7 @@
       <c r="T90" s="1"/>
       <c r="W90" s="1"/>
     </row>
-    <row r="91" spans="2:23">
+    <row r="91" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>104</v>
       </c>
@@ -3386,9 +3444,9 @@
       <c r="T91" s="1"/>
       <c r="W91" s="1"/>
     </row>
-    <row r="92" spans="2:23">
+    <row r="92" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>104</v>
@@ -3413,9 +3471,9 @@
       <c r="T92" s="1"/>
       <c r="W92" s="1"/>
     </row>
-    <row r="93" spans="2:23">
+    <row r="93" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>104</v>
@@ -3440,9 +3498,9 @@
       <c r="T93" s="1"/>
       <c r="W93" s="1"/>
     </row>
-    <row r="94" spans="2:23">
+    <row r="94" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>104</v>
@@ -3467,9 +3525,9 @@
       <c r="T94" s="1"/>
       <c r="W94" s="1"/>
     </row>
-    <row r="95" spans="2:23">
+    <row r="95" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>104</v>
@@ -3494,9 +3552,9 @@
       <c r="S95" s="1"/>
       <c r="W95" s="1"/>
     </row>
-    <row r="96" spans="2:23">
+    <row r="96" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>104</v>
@@ -3521,9 +3579,9 @@
       <c r="S96" s="1"/>
       <c r="W96" s="1"/>
     </row>
-    <row r="97" spans="2:23">
+    <row r="97" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>104</v>
@@ -3548,9 +3606,9 @@
       <c r="S97" s="1"/>
       <c r="W97" s="1"/>
     </row>
-    <row r="98" spans="2:23">
+    <row r="98" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>104</v>
@@ -3575,7 +3633,7 @@
       <c r="S98" s="1"/>
       <c r="W98" s="1"/>
     </row>
-    <row r="99" spans="2:23">
+    <row r="99" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -3589,9 +3647,9 @@
       <c r="S99" s="1"/>
       <c r="W99" s="1"/>
     </row>
-    <row r="100" spans="2:23" ht="27.6">
+    <row r="100" spans="2:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>116</v>
@@ -3616,9 +3674,9 @@
       <c r="S100" s="1"/>
       <c r="W100" s="1"/>
     </row>
-    <row r="101" spans="2:23" ht="27.6">
+    <row r="101" spans="2:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>116</v>
@@ -3644,9 +3702,9 @@
       <c r="T101" s="1"/>
       <c r="W101" s="1"/>
     </row>
-    <row r="102" spans="2:23" ht="27.6">
+    <row r="102" spans="2:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>116</v>
@@ -3672,9 +3730,9 @@
       <c r="T102" s="1"/>
       <c r="W102" s="1"/>
     </row>
-    <row r="103" spans="2:23" ht="27.6">
+    <row r="103" spans="2:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>116</v>
@@ -3700,7 +3758,7 @@
       <c r="T103" s="1"/>
       <c r="W103" s="1"/>
     </row>
-    <row r="104" spans="2:23" ht="27.6">
+    <row r="104" spans="2:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C104" s="1" t="s">
         <v>116</v>
       </c>
@@ -3725,7 +3783,7 @@
       <c r="T104" s="1"/>
       <c r="W104" s="1"/>
     </row>
-    <row r="105" spans="2:23" ht="27.6">
+    <row r="105" spans="2:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C105" s="1" t="s">
         <v>116</v>
       </c>
@@ -3750,7 +3808,7 @@
       <c r="T105" s="1"/>
       <c r="W105" s="1"/>
     </row>
-    <row r="106" spans="2:23" ht="27.6">
+    <row r="106" spans="2:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C106" s="1" t="s">
         <v>116</v>
       </c>
@@ -3775,7 +3833,7 @@
       <c r="T106" s="1"/>
       <c r="W106" s="1"/>
     </row>
-    <row r="107" spans="2:23" ht="27.6">
+    <row r="107" spans="2:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C107" s="1" t="s">
         <v>116</v>
       </c>
@@ -3800,7 +3858,7 @@
       <c r="T107" s="1"/>
       <c r="W107" s="1"/>
     </row>
-    <row r="108" spans="2:23">
+    <row r="108" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C108" s="1" t="s">
         <v>116</v>
       </c>
@@ -3825,7 +3883,7 @@
       <c r="T108" s="1"/>
       <c r="W108" s="1"/>
     </row>
-    <row r="109" spans="2:23">
+    <row r="109" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C109" s="1" t="s">
         <v>116</v>
       </c>
@@ -3850,7 +3908,7 @@
       <c r="T109" s="1"/>
       <c r="W109" s="1"/>
     </row>
-    <row r="110" spans="2:23">
+    <row r="110" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C110" s="1" t="s">
         <v>116</v>
       </c>
@@ -3875,7 +3933,7 @@
       <c r="T110" s="1"/>
       <c r="W110" s="1"/>
     </row>
-    <row r="111" spans="2:23">
+    <row r="111" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C111" s="1" t="s">
         <v>116</v>
       </c>
@@ -3900,7 +3958,7 @@
       <c r="T111" s="1"/>
       <c r="W111" s="1"/>
     </row>
-    <row r="112" spans="2:23">
+    <row r="112" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C112" s="1" t="s">
         <v>104</v>
       </c>
@@ -3924,7 +3982,10 @@
       <c r="T112" s="1"/>
       <c r="W112" s="1"/>
     </row>
-    <row r="113" spans="3:23">
+    <row r="113" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
+        <v>301</v>
+      </c>
       <c r="C113" s="1" t="s">
         <v>129</v>
       </c>
@@ -3948,7 +4009,10 @@
       <c r="T113" s="1"/>
       <c r="W113" s="1"/>
     </row>
-    <row r="114" spans="3:23">
+    <row r="114" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
+        <v>302</v>
+      </c>
       <c r="C114" s="1" t="s">
         <v>129</v>
       </c>
@@ -3972,7 +4036,10 @@
       <c r="T114" s="1"/>
       <c r="W114" s="1"/>
     </row>
-    <row r="115" spans="3:23">
+    <row r="115" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B115" t="s">
+        <v>303</v>
+      </c>
       <c r="C115" s="1" t="s">
         <v>129</v>
       </c>
@@ -3996,7 +4063,10 @@
       <c r="T115" s="1"/>
       <c r="W115" s="1"/>
     </row>
-    <row r="116" spans="3:23">
+    <row r="116" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B116" t="s">
+        <v>304</v>
+      </c>
       <c r="C116" s="1" t="s">
         <v>129</v>
       </c>
@@ -4020,7 +4090,10 @@
       <c r="T116" s="1"/>
       <c r="W116" s="1"/>
     </row>
-    <row r="117" spans="3:23">
+    <row r="117" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B117" t="s">
+        <v>305</v>
+      </c>
       <c r="C117" s="1" t="s">
         <v>129</v>
       </c>
@@ -4044,7 +4117,10 @@
       <c r="T117" s="1"/>
       <c r="W117" s="1"/>
     </row>
-    <row r="118" spans="3:23">
+    <row r="118" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
+        <v>306</v>
+      </c>
       <c r="C118" s="1" t="s">
         <v>129</v>
       </c>
@@ -4066,7 +4142,10 @@
       <c r="S118" s="1"/>
       <c r="W118" s="1"/>
     </row>
-    <row r="119" spans="3:23">
+    <row r="119" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
+        <v>307</v>
+      </c>
       <c r="C119" s="1" t="s">
         <v>129</v>
       </c>
@@ -4089,7 +4168,10 @@
       <c r="S119" s="1"/>
       <c r="W119" s="1"/>
     </row>
-    <row r="120" spans="3:23">
+    <row r="120" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B120" t="s">
+        <v>308</v>
+      </c>
       <c r="C120" s="1" t="s">
         <v>129</v>
       </c>
@@ -4106,7 +4188,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="3:23">
+    <row r="121" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B121" t="s">
+        <v>309</v>
+      </c>
       <c r="C121" s="1" t="s">
         <v>129</v>
       </c>
@@ -4123,7 +4208,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="3:23">
+    <row r="122" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B122" t="s">
+        <v>310</v>
+      </c>
       <c r="C122" s="1" t="s">
         <v>129</v>
       </c>
@@ -4140,7 +4228,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="3:23">
+    <row r="123" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B123" t="s">
+        <v>313</v>
+      </c>
       <c r="C123" s="1" t="s">
         <v>129</v>
       </c>
@@ -4157,7 +4248,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="3:23">
+    <row r="124" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B124" t="s">
+        <v>314</v>
+      </c>
       <c r="C124" s="1" t="s">
         <v>129</v>
       </c>
@@ -4174,7 +4268,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="3:23">
+    <row r="125" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B125" t="s">
+        <v>315</v>
+      </c>
       <c r="C125" s="1" t="s">
         <v>129</v>
       </c>
@@ -4191,7 +4288,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="3:23">
+    <row r="126" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B126" t="s">
+        <v>316</v>
+      </c>
       <c r="C126" s="1" t="s">
         <v>129</v>
       </c>
@@ -4208,7 +4308,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="3:23">
+    <row r="127" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B127" t="s">
+        <v>317</v>
+      </c>
       <c r="C127" s="1" t="s">
         <v>129</v>
       </c>
@@ -4225,24 +4328,30 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="3:23">
+    <row r="128" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B128" t="s">
+        <v>318</v>
+      </c>
       <c r="C128" s="1" t="s">
         <v>129</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>125</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="3:8">
+    <row r="129" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B129" t="s">
+        <v>311</v>
+      </c>
       <c r="C129" s="1" t="s">
         <v>129</v>
       </c>
@@ -4259,7 +4368,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="3:8">
+    <row r="130" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B130" t="s">
+        <v>312</v>
+      </c>
       <c r="C130" s="1" t="s">
         <v>129</v>
       </c>
@@ -4276,22 +4388,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="3:8">
+    <row r="131" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C131" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H131" s="1"/>
-    </row>
-    <row r="132" spans="3:8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C132" s="1" t="s">
         <v>130</v>
       </c>
@@ -4306,7 +4420,7 @@
       </c>
       <c r="H132" s="1"/>
     </row>
-    <row r="133" spans="3:8">
+    <row r="133" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C133" s="1" t="s">
         <v>130</v>
       </c>
@@ -4321,7 +4435,7 @@
       </c>
       <c r="H133" s="1"/>
     </row>
-    <row r="134" spans="3:8">
+    <row r="134" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C134" s="1" t="s">
         <v>130</v>
       </c>
@@ -4336,67 +4450,67 @@
       </c>
       <c r="H134" s="1"/>
     </row>
-    <row r="135" spans="3:8">
+    <row r="135" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C135" s="1" t="s">
         <v>130</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>7</v>
+        <v>133</v>
       </c>
       <c r="H135" s="1"/>
     </row>
-    <row r="136" spans="3:8">
+    <row r="136" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C136" s="1" t="s">
         <v>130</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>138</v>
+        <v>7</v>
       </c>
       <c r="H136" s="1"/>
     </row>
-    <row r="137" spans="3:8">
+    <row r="137" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C137" s="1" t="s">
         <v>130</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>3</v>
+        <v>138</v>
       </c>
       <c r="H137" s="1"/>
     </row>
-    <row r="138" spans="3:8">
+    <row r="138" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C138" s="1" t="s">
         <v>130</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>142</v>
+        <v>3</v>
       </c>
       <c r="H138" s="1"/>
     </row>
-    <row r="139" spans="3:8">
+    <row r="139" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C139" s="1" t="s">
         <v>130</v>
       </c>
@@ -4411,7 +4525,7 @@
       </c>
       <c r="H139" s="1"/>
     </row>
-    <row r="140" spans="3:8">
+    <row r="140" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C140" s="1" t="s">
         <v>130</v>
       </c>
@@ -4426,7 +4540,7 @@
       </c>
       <c r="H140" s="1"/>
     </row>
-    <row r="141" spans="3:8">
+    <row r="141" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C141" s="1" t="s">
         <v>130</v>
       </c>
@@ -4441,7 +4555,7 @@
       </c>
       <c r="H141" s="1"/>
     </row>
-    <row r="142" spans="3:8">
+    <row r="142" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C142" s="1" t="s">
         <v>130</v>
       </c>
@@ -4456,7 +4570,7 @@
       </c>
       <c r="H142" s="1"/>
     </row>
-    <row r="143" spans="3:8">
+    <row r="143" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C143" s="1" t="s">
         <v>130</v>
       </c>
@@ -4471,7 +4585,7 @@
       </c>
       <c r="H143" s="1"/>
     </row>
-    <row r="144" spans="3:8">
+    <row r="144" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C144" s="1" t="s">
         <v>130</v>
       </c>
@@ -4486,7 +4600,7 @@
       </c>
       <c r="H144" s="1"/>
     </row>
-    <row r="145" spans="3:10">
+    <row r="145" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C145" s="1" t="s">
         <v>130</v>
       </c>
@@ -4501,7 +4615,7 @@
       </c>
       <c r="H145" s="1"/>
     </row>
-    <row r="146" spans="3:10">
+    <row r="146" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C146" s="1" t="s">
         <v>130</v>
       </c>
@@ -4516,7 +4630,7 @@
       </c>
       <c r="H146" s="1"/>
     </row>
-    <row r="147" spans="3:10">
+    <row r="147" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C147" s="1" t="s">
         <v>130</v>
       </c>
@@ -4531,22 +4645,22 @@
       </c>
       <c r="H147" s="1"/>
     </row>
-    <row r="148" spans="3:10">
+    <row r="148" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C148" s="1" t="s">
         <v>130</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>144</v>
+        <v>50</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H148" s="1"/>
     </row>
-    <row r="149" spans="3:10">
+    <row r="149" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C149" s="1" t="s">
         <v>130</v>
       </c>
@@ -4561,22 +4675,25 @@
       </c>
       <c r="H149" s="1"/>
     </row>
-    <row r="150" spans="3:10">
+    <row r="150" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C150" s="1" t="s">
         <v>130</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H150" s="1"/>
     </row>
-    <row r="151" spans="3:10">
+    <row r="151" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B151" t="s">
+        <v>319</v>
+      </c>
       <c r="C151" s="1" t="s">
         <v>130</v>
       </c>
@@ -4584,197 +4701,189 @@
         <v>146</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>149</v>
+        <v>320</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="H151" s="1"/>
     </row>
-    <row r="152" spans="3:10">
+    <row r="152" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B152" t="s">
+        <v>321</v>
+      </c>
       <c r="C152" s="1" t="s">
         <v>130</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="H152" s="1"/>
     </row>
-    <row r="153" spans="3:10">
+    <row r="153" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C153" s="1" t="s">
         <v>130</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H153" s="1"/>
     </row>
-    <row r="154" spans="3:10">
+    <row r="154" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C154" s="1" t="s">
         <v>130</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H154" s="1"/>
     </row>
-    <row r="155" spans="3:10">
+    <row r="155" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C155" s="1" t="s">
         <v>130</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H155" s="1"/>
     </row>
-    <row r="156" spans="3:10">
+    <row r="156" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C156" s="1" t="s">
         <v>130</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>153</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H156" s="1"/>
     </row>
-    <row r="157" spans="3:10">
+    <row r="157" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C157" s="1" t="s">
         <v>130</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="H157" s="1"/>
     </row>
-    <row r="158" spans="3:10">
+    <row r="158" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C158" s="1" t="s">
         <v>130</v>
       </c>
       <c r="D158" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G158" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E158" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G158" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="H158" s="1"/>
     </row>
-    <row r="159" spans="3:10">
+    <row r="159" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C159" s="1" t="s">
         <v>130</v>
       </c>
       <c r="D159" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H159" s="1"/>
+    </row>
+    <row r="160" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C160" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G160" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E159" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G159" s="1" t="s">
+      <c r="H160" s="1"/>
+    </row>
+    <row r="161" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C161" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="H159" s="1"/>
-    </row>
-    <row r="160" spans="3:10" ht="27.6">
-      <c r="C160" s="1" t="s">
+      <c r="D161" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E161" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D160" s="1" t="s">
+      <c r="F161" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E160" s="1" t="s">
+      <c r="G161" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I161" s="1">
+        <v>6</v>
+      </c>
+      <c r="J161" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F160" s="1" t="s">
+    </row>
+    <row r="162" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B162" t="s">
+        <v>279</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D162" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="G160" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I160" s="1">
-        <v>6</v>
-      </c>
-      <c r="J160" s="1" t="s">
+      <c r="E162" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="161" spans="2:11">
-      <c r="B161" t="s">
-        <v>281</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D161" s="1" t="s">
+      <c r="F162" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F161" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G161" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I161" s="1">
-        <v>4</v>
-      </c>
-      <c r="J161" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="162" spans="2:11">
-      <c r="B162" t="s">
-        <v>282</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F162" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>3</v>
@@ -4783,937 +4892,945 @@
         <v>4</v>
       </c>
       <c r="J162" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="163" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B163" t="s">
+        <v>280</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E163" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="163" spans="2:11" ht="27.6">
-      <c r="C163" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="F163" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G163" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I163" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="164" spans="2:11">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="164" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C164" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>175</v>
+        <v>3</v>
       </c>
       <c r="I164" s="1">
         <v>6</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="165" spans="2:11" ht="27.6">
-      <c r="B165" t="s">
-        <v>285</v>
-      </c>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="165" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C165" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E165" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D165" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="F165" s="1" t="s">
-        <v>300</v>
+        <v>172</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>3</v>
+        <v>173</v>
       </c>
       <c r="I165" s="1">
         <v>6</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="166" spans="2:11" ht="27.6">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="166" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B166" t="s">
+        <v>283</v>
+      </c>
       <c r="C166" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E166" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D166" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="F166" s="1" t="s">
-        <v>177</v>
+        <v>298</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>150</v>
+        <v>3</v>
       </c>
       <c r="I166" s="1">
         <v>6</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="167" spans="2:11" ht="41.4">
-      <c r="B167" t="s">
-        <v>283</v>
-      </c>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="167" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C167" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>299</v>
+        <v>175</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I167" s="1">
         <v>6</v>
       </c>
       <c r="J167" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="168" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B168" t="s">
+        <v>281</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I168" s="1">
+        <v>6</v>
+      </c>
+      <c r="J168" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="169" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B169" t="s">
+        <v>282</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I169" s="1">
+        <v>4</v>
+      </c>
+      <c r="J169" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="170" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C170" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F170" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="168" spans="2:11" ht="27.6">
-      <c r="B168" t="s">
-        <v>284</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E168" s="1" t="s">
+      <c r="G170" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I170" s="1">
+        <v>6</v>
+      </c>
+      <c r="J170" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F168" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G168" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I168" s="1">
+    </row>
+    <row r="171" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B171" t="s">
+        <v>278</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I171" s="1">
         <v>4</v>
       </c>
-      <c r="J168" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="169" spans="2:11">
-      <c r="C169" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E169" s="1" t="s">
+      <c r="J171" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F169" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G169" s="1" t="s">
+    </row>
+    <row r="172" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C172" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D172" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="I169" s="1">
-        <v>6</v>
-      </c>
-      <c r="J169" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="170" spans="2:11">
-      <c r="B170" t="s">
-        <v>280</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="F170" s="1" t="s">
+      <c r="E172" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G170" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I170" s="1">
-        <v>4</v>
-      </c>
-      <c r="J170" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="171" spans="2:11">
-      <c r="C171" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D171" s="1" t="s">
+      <c r="F172" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E171" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F171" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G171" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I171" s="1">
-        <v>6</v>
-      </c>
-      <c r="J171" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="172" spans="2:11" ht="31.8" customHeight="1">
-      <c r="B172" t="s">
-        <v>279</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="G172" s="1" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="I172" s="1">
         <v>6</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="173" spans="2:11" ht="31.8" customHeight="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="173" spans="2:10" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B173" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="C173" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E173" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D173" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="F173" s="1" t="s">
-        <v>301</v>
+        <v>184</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>302</v>
+        <v>185</v>
       </c>
       <c r="I173" s="1">
         <v>6</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="174" spans="2:11" ht="31.8" customHeight="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="174" spans="2:10" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B174" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F174" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>299</v>
+      </c>
       <c r="G174" s="1" t="s">
-        <v>187</v>
+        <v>300</v>
       </c>
       <c r="I174" s="1">
         <v>6</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="175" spans="2:11">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="175" spans="2:10" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B175" t="s">
+        <v>285</v>
+      </c>
       <c r="C175" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F175" s="1" t="s">
-        <v>189</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="F175" s="1"/>
       <c r="G175" s="1" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="I175" s="1">
         <v>6</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="176" spans="2:11">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="176" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C176" s="1" t="s">
-        <v>65</v>
+        <v>162</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H176" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="K176" s="1"/>
-    </row>
-    <row r="177" spans="3:11">
+        <v>157</v>
+      </c>
+      <c r="I176" s="1">
+        <v>6</v>
+      </c>
+      <c r="J176" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="177" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C177" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E177" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H177" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F177" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G177" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H177" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="178" spans="3:11">
+      <c r="K177" s="1"/>
+    </row>
+    <row r="178" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C178" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E178" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H178" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F178" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G178" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H178" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="179" spans="3:11">
+    </row>
+    <row r="179" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C179" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E179" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H179" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F179" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G179" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H179" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="180" spans="3:11">
+    </row>
+    <row r="180" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C180" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E180" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H180" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F180" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G180" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H180" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="181" spans="3:11">
+    </row>
+    <row r="181" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C181" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E181" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H181" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F181" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G181" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H181" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="182" spans="3:11">
+    </row>
+    <row r="182" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C182" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E182" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H182" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F182" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G182" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H182" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="183" spans="3:11">
+    </row>
+    <row r="183" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C183" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E183" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H183" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F183" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G183" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H183" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="184" spans="3:11">
+    </row>
+    <row r="184" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C184" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E184" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H184" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F184" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G184" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H184" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="185" spans="3:11">
+    </row>
+    <row r="185" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C185" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E185" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H185" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F185" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G185" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H185" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="186" spans="3:11">
+    </row>
+    <row r="186" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C186" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E186" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H186" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F186" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G186" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H186" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="187" spans="3:11">
+    </row>
+    <row r="187" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C187" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E187" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H187" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F187" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G187" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H187" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="188" spans="3:11">
+    </row>
+    <row r="188" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C188" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E188" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H188" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F188" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G188" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H188" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="189" spans="3:11">
+    </row>
+    <row r="189" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C189" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E189" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H189" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F189" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G189" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H189" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="190" spans="3:11">
+    </row>
+    <row r="190" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C190" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E190" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H190" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F190" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G190" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H190" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="191" spans="3:11">
+    </row>
+    <row r="191" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C191" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E191" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H191" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F191" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G191" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H191" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="192" spans="3:11">
+    </row>
+    <row r="192" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C192" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>196</v>
+        <v>3</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="K192" s="1"/>
-    </row>
-    <row r="193" spans="3:11">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C193" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>3</v>
+        <v>194</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="K193" s="1"/>
     </row>
-    <row r="194" spans="3:11">
+    <row r="194" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C194" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E194" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H194" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K194" s="1"/>
+    </row>
+    <row r="195" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C195" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H195" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K195" s="1"/>
+    </row>
+    <row r="196" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C196" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F194" s="1" t="s">
+      <c r="E196" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="G194" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H194" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="K194" s="1"/>
-    </row>
-    <row r="195" spans="3:11" ht="27.6">
-      <c r="C195" s="1" t="s">
+      <c r="F196" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E195" s="1" t="s">
+      <c r="G196" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H196" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K196" s="1"/>
+    </row>
+    <row r="197" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C197" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G197" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H197" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="198" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C198" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H198" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="199" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C199" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F199" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F195" s="1" t="s">
+      <c r="G199" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H199" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K199" s="1"/>
+    </row>
+    <row r="200" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C200" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F200" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="G195" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H195" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="K195" s="1"/>
-    </row>
-    <row r="196" spans="3:11" ht="27.6">
-      <c r="C196" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F196" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G196" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H196" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="197" spans="3:11" ht="27.6">
-      <c r="C197" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F197" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G197" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H197" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="198" spans="3:11" ht="27.6">
-      <c r="C198" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F198" s="1" t="s">
+      <c r="G200" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H200" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K200" s="1"/>
+    </row>
+    <row r="201" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C201" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E201" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="G198" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H198" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="K198" s="1"/>
-    </row>
-    <row r="199" spans="3:11" ht="27.6">
-      <c r="C199" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F199" s="1" t="s">
+      <c r="F201" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="G199" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H199" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="K199" s="1"/>
-    </row>
-    <row r="200" spans="3:11" ht="27.6">
-      <c r="C200" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F200" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G200" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H200" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="K200" s="1"/>
-    </row>
-    <row r="201" spans="3:11" ht="27.6">
-      <c r="C201" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F201" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="G201" s="1" t="s">
-        <v>210</v>
+        <v>3</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K201" s="1"/>
     </row>
-    <row r="202" spans="3:11" ht="27.6">
+    <row r="202" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C202" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="203" spans="3:11" ht="27.6">
+        <v>191</v>
+      </c>
+      <c r="K202" s="1"/>
+    </row>
+    <row r="203" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C203" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F203" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G203" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H203" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="204" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C204" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G204" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H204" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="205" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C205" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E205" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G203" s="1" t="s">
+      <c r="F205" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H203" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="204" spans="3:11" ht="27.6">
-      <c r="C204" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E204" s="1" t="s">
+      <c r="G205" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="F204" s="1" t="s">
+      <c r="H205" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="G204" s="1" t="s">
+      <c r="K205" s="1"/>
+    </row>
+    <row r="206" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C206" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="H204" s="1" t="s">
+      <c r="D206" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="K204" s="1"/>
-    </row>
-    <row r="205" spans="3:11">
-      <c r="C205" s="1" t="s">
+      <c r="E206" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D205" s="1" t="s">
+      <c r="F206" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E205" s="1" t="s">
+      <c r="G206" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K206" s="1"/>
+    </row>
+    <row r="207" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C207" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E207" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F205" s="1" t="s">
+      <c r="F207" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="G205" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K205" s="1"/>
-    </row>
-    <row r="206" spans="3:11" ht="27.6">
-      <c r="C206" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D206" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E206" s="1" t="s">
+      <c r="G207" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K207" s="1"/>
+    </row>
+    <row r="208" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C208" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E208" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F206" s="1" t="s">
+      <c r="F208" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="G206" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K206" s="1"/>
-    </row>
-    <row r="207" spans="3:11">
-      <c r="C207" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D207" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E207" s="1" t="s">
+      <c r="G208" s="1"/>
+      <c r="K208" s="1"/>
+    </row>
+    <row r="209" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C209" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E209" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="F207" s="1" t="s">
+      <c r="F209" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="G207" s="1"/>
-      <c r="K207" s="1"/>
-    </row>
-    <row r="208" spans="3:11">
-      <c r="C208" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E208" s="1" t="s">
+      <c r="G209" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K209" s="1"/>
+    </row>
+    <row r="210" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C210" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D210" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="F208" s="1" t="s">
+      <c r="E210" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F210" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="G208" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K208" s="1"/>
-    </row>
-    <row r="209" spans="3:11">
-      <c r="C209" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E209" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="F209" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G209" s="1"/>
-      <c r="K209" s="1"/>
-    </row>
-    <row r="210" spans="3:11">
-      <c r="C210" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F210" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G210" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="G210" s="1"/>
       <c r="K210" s="1"/>
     </row>
-    <row r="211" spans="3:11">
+    <row r="211" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C211" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>53</v>
@@ -5722,15 +5839,16 @@
         <v>54</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G211" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="212" spans="3:11">
+      <c r="K211" s="1"/>
+    </row>
+    <row r="212" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C212" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>53</v>
@@ -5739,15 +5857,15 @@
         <v>54</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G212" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="3:11">
+    <row r="213" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C213" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>53</v>
@@ -5756,15 +5874,15 @@
         <v>54</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G213" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="3:11">
+    <row r="214" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C214" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>53</v>
@@ -5773,15 +5891,15 @@
         <v>54</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G214" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="3:11">
+    <row r="215" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C215" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>53</v>
@@ -5790,15 +5908,15 @@
         <v>54</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G215" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="3:11">
+    <row r="216" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C216" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>53</v>
@@ -5807,15 +5925,15 @@
         <v>54</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G216" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="3:11">
+    <row r="217" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C217" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>53</v>
@@ -5824,15 +5942,15 @@
         <v>54</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G217" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="3:11">
+    <row r="218" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C218" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>53</v>
@@ -5841,15 +5959,15 @@
         <v>54</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G218" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="3:11">
+    <row r="219" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C219" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>53</v>
@@ -5858,15 +5976,15 @@
         <v>54</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G219" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="3:11">
+    <row r="220" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C220" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>53</v>
@@ -5875,15 +5993,15 @@
         <v>54</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G220" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="3:11">
+    <row r="221" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C221" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>53</v>
@@ -5892,15 +6010,15 @@
         <v>54</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G221" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="3:11">
+    <row r="222" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C222" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>53</v>
@@ -5909,15 +6027,15 @@
         <v>54</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G222" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="3:11">
+    <row r="223" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C223" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>53</v>
@@ -5926,15 +6044,15 @@
         <v>54</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G223" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="3:11">
+    <row r="224" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C224" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>53</v>
@@ -5943,15 +6061,15 @@
         <v>54</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G224" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="3:11">
+    <row r="225" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C225" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>53</v>
@@ -5960,15 +6078,15 @@
         <v>54</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G225" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="3:11">
+    <row r="226" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C226" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>53</v>
@@ -5977,15 +6095,15 @@
         <v>54</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G226" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="3:11">
+    <row r="227" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C227" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>53</v>
@@ -5994,15 +6112,15 @@
         <v>54</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G227" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="3:11">
+    <row r="228" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C228" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>53</v>
@@ -6011,15 +6129,15 @@
         <v>54</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G228" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="3:11">
+    <row r="229" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C229" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>53</v>
@@ -6028,371 +6146,367 @@
         <v>54</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G229" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="3:11">
+    <row r="230" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C230" s="1" t="s">
-        <v>117</v>
+        <v>213</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>228</v>
+        <v>53</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>229</v>
+        <v>54</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G230" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H230" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="K230" s="1"/>
-    </row>
-    <row r="231" spans="3:11">
+    </row>
+    <row r="231" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C231" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E231" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G231" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H231" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="F231" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="G231" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H231" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="K231" s="1"/>
     </row>
-    <row r="232" spans="3:11">
+    <row r="232" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C232" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E232" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G232" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H232" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="F232" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="G232" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H232" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="233" spans="3:11">
+      <c r="K232" s="1"/>
+    </row>
+    <row r="233" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C233" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="H233" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="K233" s="1"/>
-    </row>
-    <row r="234" spans="3:11">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="234" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C234" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D234" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E234" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E234" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="F234" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G234" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H234" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K234" s="1"/>
     </row>
-    <row r="235" spans="3:11">
+    <row r="235" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C235" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>203</v>
+        <v>36</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="H235" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K235" s="1"/>
     </row>
-    <row r="236" spans="3:11">
+    <row r="236" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C236" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="H236" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K236" s="1"/>
     </row>
-    <row r="237" spans="3:11">
+    <row r="237" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C237" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="H237" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K237" s="1"/>
     </row>
-    <row r="238" spans="3:11">
+    <row r="238" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C238" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>203</v>
+        <v>241</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G238" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K238" s="1"/>
     </row>
-    <row r="239" spans="3:11">
+    <row r="239" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C239" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>247</v>
+        <v>201</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G239" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H239" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K239" s="1"/>
     </row>
-    <row r="240" spans="3:11">
+    <row r="240" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C240" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D240" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F240" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="E240" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="F240" s="1" t="s">
-        <v>248</v>
-      </c>
       <c r="G240" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="241" spans="3:11">
+        <v>229</v>
+      </c>
+      <c r="K240" s="1"/>
+    </row>
+    <row r="241" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C241" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D241" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F241" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="E241" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F241" s="1" t="s">
-        <v>249</v>
-      </c>
       <c r="G241" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="K241" s="1"/>
-    </row>
-    <row r="242" spans="3:11">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="242" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C242" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>250</v>
+        <v>24</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G242" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H242" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K242" s="1"/>
     </row>
-    <row r="243" spans="3:11">
+    <row r="243" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C243" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="H243" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K243" s="1"/>
     </row>
-    <row r="244" spans="3:11">
+    <row r="244" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C244" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G244" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="245" spans="3:11">
+        <v>229</v>
+      </c>
+      <c r="K244" s="1"/>
+    </row>
+    <row r="245" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C245" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G245" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H245" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="246" spans="3:11">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="246" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C246" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>50</v>
+        <v>251</v>
       </c>
       <c r="G246" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="K246" s="1"/>
-    </row>
-    <row r="247" spans="3:11">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="247" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C247" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>50</v>
@@ -6404,194 +6518,194 @@
         <v>52</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="248" spans="3:11">
+        <v>229</v>
+      </c>
+      <c r="K247" s="1"/>
+    </row>
+    <row r="248" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C248" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>254</v>
+        <v>50</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="G248" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="K248" s="1"/>
-    </row>
-    <row r="249" spans="3:11">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="249" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C249" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G249" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="250" spans="3:11">
+        <v>229</v>
+      </c>
+      <c r="K249" s="1"/>
+    </row>
+    <row r="250" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C250" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G250" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="251" spans="3:11">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="251" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C251" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G251" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="252" spans="3:11">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="252" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C252" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G252" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="253" spans="3:11">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="253" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C253" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>203</v>
+        <v>252</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="K253" s="1"/>
-    </row>
-    <row r="254" spans="3:11">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="254" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C254" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G254" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H254" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="255" spans="3:11">
+        <v>255</v>
+      </c>
+      <c r="K254" s="1"/>
+    </row>
+    <row r="255" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C255" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E255" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G255" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H255" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="256" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C256" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G256" s="1"/>
+      <c r="H256" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="K256" s="1"/>
+    </row>
+    <row r="257" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C257" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="F255" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G255" s="1"/>
-      <c r="H255" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="K255" s="1"/>
-    </row>
-    <row r="256" spans="3:11" ht="30" customHeight="1">
-      <c r="C256" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D256" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E256" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F256" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="G256" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H256" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="K256" s="1"/>
-    </row>
-    <row r="257" spans="3:11" ht="27.6">
-      <c r="C257" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>50</v>
@@ -6600,18 +6714,19 @@
         <v>36</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G257" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="258" spans="3:11" ht="27.6">
+        <v>229</v>
+      </c>
+      <c r="K257" s="1"/>
+    </row>
+    <row r="258" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C258" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>50</v>
@@ -6620,18 +6735,18 @@
         <v>36</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G258" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="259" spans="3:11" ht="27.6">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="259" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C259" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>50</v>
@@ -6640,18 +6755,18 @@
         <v>36</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G259" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="260" spans="3:11" ht="27.6">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="260" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C260" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D260" s="1" t="s">
         <v>50</v>
@@ -6660,99 +6775,119 @@
         <v>36</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G260" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H260" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="261" spans="3:11">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="261" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C261" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G261" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H261" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="262" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C262" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F262" t="s">
         <v>262</v>
       </c>
-      <c r="D261" s="1" t="s">
+      <c r="G262" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K262" s="1"/>
+    </row>
+    <row r="263" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C263" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E263" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E261" s="1" t="s">
+      <c r="F263" t="s">
+        <v>262</v>
+      </c>
+      <c r="G263" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="264" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C264" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F264" t="s">
+        <v>262</v>
+      </c>
+      <c r="G264" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="265" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C265" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D265" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="F261" t="s">
+      <c r="E265" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G265" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K265" s="1"/>
+    </row>
+    <row r="266" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C266" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="G261" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="K261" s="1"/>
-    </row>
-    <row r="262" spans="3:11">
-      <c r="C262" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D262" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E262" s="1" t="s">
+      <c r="D266" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="F262" t="s">
-        <v>264</v>
-      </c>
-      <c r="G262" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="263" spans="3:11">
-      <c r="C263" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D263" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E263" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="F263" t="s">
-        <v>264</v>
-      </c>
-      <c r="G263" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="264" spans="3:11">
-      <c r="C264" s="1" t="s">
+      <c r="E266" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D264" s="1" t="s">
+      <c r="F266" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="E264" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="F264" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="G264" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K264" s="1"/>
-    </row>
-    <row r="265" spans="3:11">
-      <c r="C265" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D265" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E265" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="F265" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="G265" s="1" t="s">
+      <c r="G266" s="1" t="s">
         <v>3</v>
       </c>
     </row>

--- a/database workbook for to be imported.xlsx
+++ b/database workbook for to be imported.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\30079051\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE09543-4F34-4109-92B6-F58C388E02B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6742179D-9A8E-44EB-8521-96D34692A63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{A5985029-C304-4E14-B06A-83B2417720C7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A5985029-C304-4E14-B06A-83B2417720C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="352">
   <si>
     <t>Amplifier</t>
   </si>
@@ -1002,6 +1002,96 @@
   </si>
   <si>
     <t>BCC00057</t>
+  </si>
+  <si>
+    <t>BCC00058</t>
+  </si>
+  <si>
+    <t>BCC00068</t>
+  </si>
+  <si>
+    <t>BCC00070</t>
+  </si>
+  <si>
+    <t>BCC00069</t>
+  </si>
+  <si>
+    <t>BCC00061</t>
+  </si>
+  <si>
+    <t>BCC00062</t>
+  </si>
+  <si>
+    <t>BCC00059</t>
+  </si>
+  <si>
+    <t>BCC00063</t>
+  </si>
+  <si>
+    <t>BCC00060</t>
+  </si>
+  <si>
+    <t>BCC00064</t>
+  </si>
+  <si>
+    <t>BCC00071</t>
+  </si>
+  <si>
+    <t>BCC00072</t>
+  </si>
+  <si>
+    <t>BCC00073</t>
+  </si>
+  <si>
+    <t>BCC00066</t>
+  </si>
+  <si>
+    <t>BCC00065</t>
+  </si>
+  <si>
+    <t>BCC00067</t>
+  </si>
+  <si>
+    <t>ATH-M20x</t>
+  </si>
+  <si>
+    <t>BCC00076</t>
+  </si>
+  <si>
+    <t>BCC00081</t>
+  </si>
+  <si>
+    <t>BCC00080</t>
+  </si>
+  <si>
+    <t>BCC00082</t>
+  </si>
+  <si>
+    <t>BCC00084</t>
+  </si>
+  <si>
+    <t>BCC00086</t>
+  </si>
+  <si>
+    <t>BCC00077</t>
+  </si>
+  <si>
+    <t>BCC00087</t>
+  </si>
+  <si>
+    <t>BCC00083</t>
+  </si>
+  <si>
+    <t>BCC00079</t>
+  </si>
+  <si>
+    <t>BCC00078</t>
+  </si>
+  <si>
+    <t>BCC00085</t>
+  </si>
+  <si>
+    <t>BCC00089</t>
   </si>
 </sst>
 </file>
@@ -1385,10 +1475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FDC74E2-49FE-4940-A5E5-5C5F4A30102F}">
-  <dimension ref="A1:W266"/>
+  <dimension ref="A1:W271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="D153" sqref="D153"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A256" sqref="A256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5239,7 +5329,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="177" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B177" t="s">
+        <v>323</v>
+      </c>
       <c r="C177" s="1" t="s">
         <v>65</v>
       </c>
@@ -5257,7 +5350,10 @@
       </c>
       <c r="K177" s="1"/>
     </row>
-    <row r="178" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B178" t="s">
+        <v>324</v>
+      </c>
       <c r="C178" s="1" t="s">
         <v>65</v>
       </c>
@@ -5274,7 +5370,10 @@
         <v>191</v>
       </c>
     </row>
-    <row r="179" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B179" t="s">
+        <v>325</v>
+      </c>
       <c r="C179" s="1" t="s">
         <v>65</v>
       </c>
@@ -5291,7 +5390,10 @@
         <v>191</v>
       </c>
     </row>
-    <row r="180" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B180" t="s">
+        <v>326</v>
+      </c>
       <c r="C180" s="1" t="s">
         <v>65</v>
       </c>
@@ -5308,7 +5410,10 @@
         <v>191</v>
       </c>
     </row>
-    <row r="181" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B181" t="s">
+        <v>327</v>
+      </c>
       <c r="C181" s="1" t="s">
         <v>65</v>
       </c>
@@ -5325,7 +5430,10 @@
         <v>191</v>
       </c>
     </row>
-    <row r="182" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B182" t="s">
+        <v>328</v>
+      </c>
       <c r="C182" s="1" t="s">
         <v>65</v>
       </c>
@@ -5342,7 +5450,10 @@
         <v>191</v>
       </c>
     </row>
-    <row r="183" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B183" t="s">
+        <v>329</v>
+      </c>
       <c r="C183" s="1" t="s">
         <v>65</v>
       </c>
@@ -5359,7 +5470,10 @@
         <v>191</v>
       </c>
     </row>
-    <row r="184" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B184" t="s">
+        <v>330</v>
+      </c>
       <c r="C184" s="1" t="s">
         <v>65</v>
       </c>
@@ -5376,7 +5490,10 @@
         <v>191</v>
       </c>
     </row>
-    <row r="185" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B185" t="s">
+        <v>322</v>
+      </c>
       <c r="C185" s="1" t="s">
         <v>65</v>
       </c>
@@ -5393,7 +5510,10 @@
         <v>191</v>
       </c>
     </row>
-    <row r="186" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B186" t="s">
+        <v>331</v>
+      </c>
       <c r="C186" s="1" t="s">
         <v>65</v>
       </c>
@@ -5410,7 +5530,10 @@
         <v>191</v>
       </c>
     </row>
-    <row r="187" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B187" t="s">
+        <v>332</v>
+      </c>
       <c r="C187" s="1" t="s">
         <v>65</v>
       </c>
@@ -5427,7 +5550,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="188" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C188" s="1" t="s">
         <v>65</v>
       </c>
@@ -5444,7 +5567,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="189" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C189" s="1" t="s">
         <v>65</v>
       </c>
@@ -5461,7 +5584,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="190" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C190" s="1" t="s">
         <v>65</v>
       </c>
@@ -5478,7 +5601,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="191" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C191" s="1" t="s">
         <v>65</v>
       </c>
@@ -5495,7 +5618,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="192" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C192" s="1" t="s">
         <v>65</v>
       </c>
@@ -5512,7 +5635,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C193" s="1" t="s">
         <v>65</v>
       </c>
@@ -5530,7 +5653,7 @@
       </c>
       <c r="K193" s="1"/>
     </row>
-    <row r="194" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C194" s="1" t="s">
         <v>65</v>
       </c>
@@ -5548,7 +5671,7 @@
       </c>
       <c r="K194" s="1"/>
     </row>
-    <row r="195" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C195" s="1" t="s">
         <v>65</v>
       </c>
@@ -5566,7 +5689,10 @@
       </c>
       <c r="K195" s="1"/>
     </row>
-    <row r="196" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B196" t="s">
+        <v>333</v>
+      </c>
       <c r="C196" s="1" t="s">
         <v>200</v>
       </c>
@@ -5584,7 +5710,10 @@
       </c>
       <c r="K196" s="1"/>
     </row>
-    <row r="197" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B197" t="s">
+        <v>334</v>
+      </c>
       <c r="C197" s="1" t="s">
         <v>200</v>
       </c>
@@ -5601,7 +5730,10 @@
         <v>191</v>
       </c>
     </row>
-    <row r="198" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B198" t="s">
+        <v>337</v>
+      </c>
       <c r="C198" s="1" t="s">
         <v>200</v>
       </c>
@@ -5618,7 +5750,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="199" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C199" s="1" t="s">
         <v>200</v>
       </c>
@@ -5636,7 +5768,7 @@
       </c>
       <c r="K199" s="1"/>
     </row>
-    <row r="200" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C200" s="1" t="s">
         <v>200</v>
       </c>
@@ -5654,7 +5786,7 @@
       </c>
       <c r="K200" s="1"/>
     </row>
-    <row r="201" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C201" s="1" t="s">
         <v>200</v>
       </c>
@@ -5672,7 +5804,7 @@
       </c>
       <c r="K201" s="1"/>
     </row>
-    <row r="202" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C202" s="1" t="s">
         <v>200</v>
       </c>
@@ -5690,7 +5822,7 @@
       </c>
       <c r="K202" s="1"/>
     </row>
-    <row r="203" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C203" s="1" t="s">
         <v>200</v>
       </c>
@@ -5707,7 +5839,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="204" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C204" s="1" t="s">
         <v>200</v>
       </c>
@@ -5724,74 +5856,81 @@
         <v>191</v>
       </c>
     </row>
-    <row r="205" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B205" t="s">
+        <v>335</v>
+      </c>
       <c r="C205" s="1" t="s">
         <v>200</v>
       </c>
       <c r="E205" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="G205" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H205" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="206" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B206" t="s">
+        <v>336</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E206" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F205" s="1" t="s">
+      <c r="F206" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="G205" s="1" t="s">
+      <c r="G206" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="H205" s="1" t="s">
+      <c r="H206" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="K205" s="1"/>
-    </row>
-    <row r="206" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C206" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D206" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E206" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F206" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G206" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="K206" s="1"/>
     </row>
-    <row r="207" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C207" s="1" t="s">
         <v>213</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G207" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K207" s="1"/>
     </row>
-    <row r="208" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C208" s="1" t="s">
         <v>213</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="G208" s="1"/>
+        <v>218</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="K208" s="1"/>
     </row>
     <row r="209" spans="3:11" x14ac:dyDescent="0.3">
@@ -5799,17 +5938,15 @@
         <v>213</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>163</v>
+        <v>78</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="G209" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="G209" s="1"/>
       <c r="K209" s="1"/>
     </row>
     <row r="210" spans="3:11" x14ac:dyDescent="0.3">
@@ -5817,15 +5954,17 @@
         <v>213</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>223</v>
+        <v>163</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>221</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="G210" s="1"/>
+        <v>222</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="K210" s="1"/>
     </row>
     <row r="211" spans="3:11" x14ac:dyDescent="0.3">
@@ -5833,17 +5972,15 @@
         <v>213</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>53</v>
+        <v>223</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>54</v>
+        <v>221</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G211" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="G211" s="1"/>
       <c r="K211" s="1"/>
     </row>
     <row r="212" spans="3:11" x14ac:dyDescent="0.3">
@@ -5862,6 +5999,7 @@
       <c r="G212" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="K212" s="1"/>
     </row>
     <row r="213" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C213" s="1" t="s">
@@ -6171,37 +6309,33 @@
     </row>
     <row r="231" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C231" s="1" t="s">
-        <v>117</v>
+        <v>213</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>226</v>
+        <v>53</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>227</v>
+        <v>54</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G231" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H231" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="K231" s="1"/>
     </row>
     <row r="232" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C232" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E232" s="1" t="s">
         <v>227</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G232" s="1" t="s">
         <v>3</v>
@@ -6230,6 +6364,7 @@
       <c r="H233" s="1" t="s">
         <v>229</v>
       </c>
+      <c r="K233" s="1"/>
     </row>
     <row r="234" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C234" s="1" t="s">
@@ -6239,18 +6374,17 @@
         <v>230</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="H234" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="K234" s="1"/>
     </row>
     <row r="235" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C235" s="1" t="s">
@@ -6260,10 +6394,10 @@
         <v>230</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>36</v>
+        <v>232</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G235" s="1" t="s">
         <v>52</v>
@@ -6278,16 +6412,16 @@
         <v>117</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>201</v>
+        <v>36</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="H236" s="1" t="s">
         <v>229</v>
@@ -6299,16 +6433,16 @@
         <v>117</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="H237" s="1" t="s">
         <v>229</v>
@@ -6320,16 +6454,16 @@
         <v>117</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="H238" s="1" t="s">
         <v>229</v>
@@ -6341,13 +6475,13 @@
         <v>117</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>201</v>
+        <v>241</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G239" s="1" t="s">
         <v>3</v>
@@ -6362,13 +6496,13 @@
         <v>117</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>245</v>
+        <v>201</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G240" s="1" t="s">
         <v>3</v>
@@ -6378,7 +6512,7 @@
       </c>
       <c r="K240" s="1"/>
     </row>
-    <row r="241" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C241" s="1" t="s">
         <v>117</v>
       </c>
@@ -6397,8 +6531,9 @@
       <c r="H241" s="1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="242" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K241" s="1"/>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C242" s="1" t="s">
         <v>117</v>
       </c>
@@ -6406,10 +6541,10 @@
         <v>244</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>24</v>
+        <v>245</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G242" s="1" t="s">
         <v>3</v>
@@ -6417,9 +6552,11 @@
       <c r="H242" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="K242" s="1"/>
-    </row>
-    <row r="243" spans="3:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>343</v>
+      </c>
       <c r="C243" s="1" t="s">
         <v>117</v>
       </c>
@@ -6427,10 +6564,10 @@
         <v>244</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>248</v>
+        <v>24</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G243" s="1" t="s">
         <v>3</v>
@@ -6440,7 +6577,7 @@
       </c>
       <c r="K243" s="1"/>
     </row>
-    <row r="244" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C244" s="1" t="s">
         <v>117</v>
       </c>
@@ -6448,20 +6585,23 @@
         <v>244</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="H244" s="1" t="s">
         <v>229</v>
       </c>
       <c r="K244" s="1"/>
     </row>
-    <row r="245" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>340</v>
+      </c>
       <c r="C245" s="1" t="s">
         <v>117</v>
       </c>
@@ -6480,8 +6620,12 @@
       <c r="H245" s="1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="246" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K245" s="1"/>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>341</v>
+      </c>
       <c r="C246" s="1" t="s">
         <v>117</v>
       </c>
@@ -6501,7 +6645,10 @@
         <v>229</v>
       </c>
     </row>
-    <row r="247" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>342</v>
+      </c>
       <c r="C247" s="1" t="s">
         <v>117</v>
       </c>
@@ -6509,10 +6656,10 @@
         <v>244</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>50</v>
+        <v>251</v>
       </c>
       <c r="G247" s="1" t="s">
         <v>52</v>
@@ -6520,9 +6667,8 @@
       <c r="H247" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="K247" s="1"/>
-    </row>
-    <row r="248" spans="3:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C248" s="1" t="s">
         <v>117</v>
       </c>
@@ -6541,8 +6687,9 @@
       <c r="H248" s="1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="249" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K248" s="1"/>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C249" s="1" t="s">
         <v>117</v>
       </c>
@@ -6550,10 +6697,10 @@
         <v>244</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>252</v>
+        <v>50</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>253</v>
+        <v>50</v>
       </c>
       <c r="G249" s="1" t="s">
         <v>52</v>
@@ -6561,9 +6708,11 @@
       <c r="H249" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="K249" s="1"/>
-    </row>
-    <row r="250" spans="3:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>339</v>
+      </c>
       <c r="C250" s="1" t="s">
         <v>117</v>
       </c>
@@ -6582,8 +6731,12 @@
       <c r="H250" s="1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="251" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K250" s="1"/>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>346</v>
+      </c>
       <c r="C251" s="1" t="s">
         <v>117</v>
       </c>
@@ -6603,7 +6756,10 @@
         <v>229</v>
       </c>
     </row>
-    <row r="252" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>347</v>
+      </c>
       <c r="C252" s="1" t="s">
         <v>117</v>
       </c>
@@ -6623,7 +6779,10 @@
         <v>229</v>
       </c>
     </row>
-    <row r="253" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>348</v>
+      </c>
       <c r="C253" s="1" t="s">
         <v>117</v>
       </c>
@@ -6643,7 +6802,10 @@
         <v>229</v>
       </c>
     </row>
-    <row r="254" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>349</v>
+      </c>
       <c r="C254" s="1" t="s">
         <v>117</v>
       </c>
@@ -6651,20 +6813,22 @@
         <v>244</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>201</v>
+        <v>252</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G254" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="H254" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="K254" s="1"/>
-    </row>
-    <row r="255" spans="3:11" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>351</v>
+      </c>
       <c r="C255" s="1" t="s">
         <v>117</v>
       </c>
@@ -6672,19 +6836,22 @@
         <v>244</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>201</v>
+        <v>252</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="256" spans="3:11" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>350</v>
+      </c>
       <c r="C256" s="1" t="s">
         <v>117</v>
       </c>
@@ -6692,51 +6859,49 @@
         <v>244</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="G256" s="1"/>
+        <v>253</v>
+      </c>
+      <c r="G256" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="H256" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="K256" s="1"/>
-    </row>
-    <row r="257" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>344</v>
+      </c>
       <c r="C257" s="1" t="s">
-        <v>258</v>
+        <v>117</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E257" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F257" s="1" t="s">
-        <v>259</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="E257" s="1"/>
+      <c r="F257" s="1"/>
       <c r="G257" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H257" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="K257" s="1"/>
-    </row>
-    <row r="258" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>345</v>
+      </c>
       <c r="C258" s="1" t="s">
-        <v>258</v>
+        <v>117</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E258" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F258" s="1" t="s">
-        <v>259</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="E258" s="1"/>
+      <c r="F258" s="1"/>
       <c r="G258" s="1" t="s">
         <v>52</v>
       </c>
@@ -6744,150 +6909,251 @@
         <v>229</v>
       </c>
     </row>
-    <row r="259" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C259" s="1" t="s">
-        <v>258</v>
+        <v>117</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>50</v>
+        <v>244</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>36</v>
+        <v>201</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="260" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+      <c r="K259" s="1"/>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C260" s="1" t="s">
-        <v>258</v>
+        <v>117</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>50</v>
+        <v>244</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>36</v>
+        <v>201</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="H260" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="261" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C261" s="1" t="s">
-        <v>258</v>
+        <v>117</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>50</v>
+        <v>244</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>36</v>
+        <v>256</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G261" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="G261" s="1"/>
       <c r="H261" s="1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="262" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K261" s="1"/>
+    </row>
+    <row r="262" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C262" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G262" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H262" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="K262" s="1"/>
+    </row>
+    <row r="263" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C263" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F263" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G263" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H263" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C264" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F264" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G264" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H264" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C265" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G265" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H265" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C266" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F266" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G266" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H266" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C267" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D262" s="1" t="s">
+      <c r="D267" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E262" s="1" t="s">
+      <c r="E267" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="F262" t="s">
+      <c r="F267" t="s">
         <v>262</v>
       </c>
-      <c r="G262" s="1" t="s">
+      <c r="G267" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="K262" s="1"/>
-    </row>
-    <row r="263" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C263" s="1" t="s">
+      <c r="K267" s="1"/>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C268" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D263" s="1" t="s">
+      <c r="D268" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E263" s="1" t="s">
+      <c r="E268" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="F263" t="s">
+      <c r="F268" t="s">
         <v>262</v>
       </c>
-      <c r="G263" s="1" t="s">
+      <c r="G268" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="264" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C264" s="1" t="s">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C269" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D264" s="1" t="s">
+      <c r="D269" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E264" s="1" t="s">
+      <c r="E269" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="F264" t="s">
+      <c r="F269" t="s">
         <v>262</v>
       </c>
-      <c r="G264" s="1" t="s">
+      <c r="G269" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="265" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C265" s="1" t="s">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C270" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D265" s="1" t="s">
+      <c r="D270" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E265" s="1" t="s">
+      <c r="E270" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="F265" s="1" t="s">
+      <c r="F270" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="G265" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K265" s="1"/>
-    </row>
-    <row r="266" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C266" s="1" t="s">
+      <c r="G270" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K270" s="1"/>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C271" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D266" s="1" t="s">
+      <c r="D271" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E266" s="1" t="s">
+      <c r="E271" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="F266" s="1" t="s">
+      <c r="F271" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="G266" s="1" t="s">
+      <c r="G271" s="1" t="s">
         <v>3</v>
       </c>
     </row>
